--- a/sriramModel-nelson-atypical-patientID_1-sims-cort-5-iterations.xlsx
+++ b/sriramModel-nelson-atypical-patientID_1-sims-cort-5-iterations.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.427406672050832</v>
+        <v>7.427868242843622</v>
       </c>
       <c r="C2">
-        <v>7.427659708347114</v>
+        <v>7.427431785851718</v>
       </c>
       <c r="D2">
-        <v>7.427371135352137</v>
+        <v>7.427444993881352</v>
       </c>
       <c r="E2">
-        <v>7.427401787503539</v>
+        <v>7.427661989756974</v>
       </c>
       <c r="F2">
-        <v>7.427406259018585</v>
+        <v>7.427401655213409</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.454722662983536</v>
+        <v>7.455664868951713</v>
       </c>
       <c r="C3">
-        <v>7.45533279445425</v>
+        <v>7.454791152037225</v>
       </c>
       <c r="D3">
-        <v>7.454657730121906</v>
+        <v>7.454803535837788</v>
       </c>
       <c r="E3">
-        <v>7.454718779182108</v>
+        <v>7.455355428994465</v>
       </c>
       <c r="F3">
-        <v>7.454721736114389</v>
+        <v>7.454706097898631</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.481949428116977</v>
+        <v>7.483392067615129</v>
       </c>
       <c r="C4">
-        <v>7.483039632611966</v>
+        <v>7.482078613830565</v>
       </c>
       <c r="D4">
-        <v>7.481861636547512</v>
+        <v>7.482077017701569</v>
       </c>
       <c r="E4">
-        <v>7.481952344743468</v>
+        <v>7.48309986819037</v>
       </c>
       <c r="F4">
-        <v>7.481948260341112</v>
+        <v>7.481916956793978</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.509088365235908</v>
+        <v>7.511051783833043</v>
       </c>
       <c r="C5">
-        <v>7.510799639149941</v>
+        <v>7.50929466252879</v>
       </c>
       <c r="D5">
-        <v>7.508984561310575</v>
+        <v>7.509266841903035</v>
       </c>
       <c r="E5">
-        <v>7.509103782312218</v>
+        <v>7.510909154531542</v>
       </c>
       <c r="F5">
-        <v>7.509087561206655</v>
+        <v>7.509037553267212</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.536140814990969</v>
+        <v>7.538645722654586</v>
       </c>
       <c r="C6">
-        <v>7.538629197033921</v>
+        <v>7.53643973676238</v>
       </c>
       <c r="D6">
-        <v>7.536028072458791</v>
+        <v>7.536374331341475</v>
       </c>
       <c r="E6">
-        <v>7.536174320286357</v>
+        <v>7.538787293209423</v>
       </c>
       <c r="F6">
-        <v>7.536141271363175</v>
+        <v>7.536070921481819</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.563108061300027</v>
+        <v>7.566175351581827</v>
       </c>
       <c r="C7">
-        <v>7.566536506365086</v>
+        <v>7.563514230523576</v>
       </c>
       <c r="D7">
-        <v>7.562993606051912</v>
+        <v>7.563400746390318</v>
       </c>
       <c r="E7">
-        <v>7.56316511921037</v>
+        <v>7.566725077415436</v>
       </c>
       <c r="F7">
-        <v>7.563110929274706</v>
+        <v>7.563019831443504</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.589991331805229</v>
+        <v>7.593641903699064</v>
       </c>
       <c r="C8">
-        <v>7.594513195720506</v>
+        <v>7.590518497883907</v>
       </c>
       <c r="D8">
-        <v>7.589882472536993</v>
+        <v>7.59034728641706</v>
       </c>
       <c r="E8">
-        <v>7.590077273572313</v>
+        <v>7.594700547428191</v>
       </c>
       <c r="F8">
-        <v>7.589997981893237</v>
+        <v>7.589886805439759</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.61679179835417</v>
+        <v>7.621046382953375</v>
       </c>
       <c r="C9">
-        <v>7.622529317783169</v>
+        <v>7.617452849703474</v>
       </c>
       <c r="D9">
-        <v>7.616695862863423</v>
+        <v>7.617215087613665</v>
       </c>
       <c r="E9">
-        <v>7.616911813586883</v>
+        <v>7.622684285408266</v>
       </c>
       <c r="F9">
-        <v>7.61680378723666</v>
+        <v>7.616674130832018</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.643510577520233</v>
+        <v>7.648389570668725</v>
       </c>
       <c r="C10">
-        <v>7.650541688805887</v>
+        <v>7.644317556515086</v>
       </c>
       <c r="D10">
-        <v>7.643434854349735</v>
+        <v>7.644005228712971</v>
       </c>
       <c r="E10">
-        <v>7.643669706934945</v>
+        <v>7.650646488153577</v>
       </c>
       <c r="F10">
-        <v>7.643529616988203</v>
+        <v>7.643383872672016</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.670148731158227</v>
+        <v>7.675672032699427</v>
       </c>
       <c r="C11">
-        <v>7.678510285928843</v>
+        <v>7.671112848631818</v>
       </c>
       <c r="D11">
-        <v>7.670100416312478</v>
+        <v>7.670718729793903</v>
       </c>
       <c r="E11">
-        <v>7.670351860470295</v>
+        <v>7.678561873429377</v>
       </c>
       <c r="F11">
-        <v>7.670176659022585</v>
+        <v>7.670017889890131</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.696707266993309</v>
+        <v>7.702894127238359</v>
       </c>
       <c r="C12">
-        <v>7.706407177839091</v>
+        <v>7.697838918529992</v>
       </c>
       <c r="D12">
-        <v>7.696693415466696</v>
+        <v>7.697356554593793</v>
       </c>
       <c r="E12">
-        <v>7.696959121889149</v>
+        <v>7.706411270262147</v>
       </c>
       <c r="F12">
-        <v>7.696746019916313</v>
+        <v>7.696577848784391</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.723187139234553</v>
+        <v>7.730056012747067</v>
       </c>
       <c r="C13">
-        <v>7.734215713173143</v>
+        <v>7.724495922755861</v>
       </c>
       <c r="D13">
-        <v>7.723214621107123</v>
+        <v>7.723919610936745</v>
       </c>
       <c r="E13">
-        <v>7.723492281365521</v>
+        <v>7.734181064427259</v>
       </c>
       <c r="F13">
-        <v>7.72323872742194</v>
+        <v>7.723065234908743</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.749589249222683</v>
+        <v>7.757157656016305</v>
       </c>
       <c r="C14">
-        <v>7.761926610935609</v>
+        <v>7.75108398133355</v>
       </c>
       <c r="D14">
-        <v>7.749664710078629</v>
+        <v>7.750408750771881</v>
       </c>
       <c r="E14">
-        <v>7.749952073151796</v>
+        <v>7.761861911620092</v>
       </c>
       <c r="F14">
-        <v>7.749655732897507</v>
+        <v>7.749481364148005</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.775914446106571</v>
+        <v>7.784198840128724</v>
       </c>
       <c r="C15">
-        <v>7.78953477972154</v>
+        <v>7.777603180145836</v>
       </c>
       <c r="D15">
-        <v>7.776044271543959</v>
+        <v>7.776824771802543</v>
       </c>
       <c r="E15">
-        <v>7.77633917714432</v>
+        <v>7.789447489137014</v>
       </c>
       <c r="F15">
-        <v>7.775997913704607</v>
+        <v>7.775827393497247</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.802163527546108</v>
+        <v>7.811179173271639</v>
       </c>
       <c r="C16">
-        <v>7.817037404617847</v>
+        <v>7.804053571647597</v>
       </c>
       <c r="D16">
-        <v>7.802353811556487</v>
+        <v>7.803168417813376</v>
       </c>
       <c r="E16">
-        <v>7.802654220414635</v>
+        <v>7.81693353070039</v>
       </c>
       <c r="F16">
-        <v>7.802266075567765</v>
+        <v>7.802104333249828</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.828337240442059</v>
+        <v>7.838098097204948</v>
       </c>
       <c r="C17">
-        <v>7.844432905050341</v>
+        <v>7.830435175672483</v>
       </c>
       <c r="D17">
-        <v>7.82859375744527</v>
+        <v>7.829440379539893</v>
       </c>
       <c r="E17">
-        <v>7.828897778706252</v>
+        <v>7.844317148161904</v>
       </c>
       <c r="F17">
-        <v>7.828460954895739</v>
+        <v>7.828313058369404</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.854436281690022</v>
+        <v>7.864954897096488</v>
       </c>
       <c r="C18">
-        <v>7.871720380991211</v>
+        <v>7.856747979771378</v>
       </c>
       <c r="D18">
-        <v>7.854764462018993</v>
+        <v>7.855641295286385</v>
       </c>
       <c r="E18">
-        <v>7.855070377897077</v>
+        <v>7.87159637398373</v>
       </c>
       <c r="F18">
-        <v>7.854583221065552</v>
+        <v>7.854454298931768</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.880461298959768</v>
+        <v>7.891748712557975</v>
       </c>
       <c r="C19">
-        <v>7.898899316847379</v>
+        <v>7.88299194160567</v>
       </c>
       <c r="D19">
-        <v>7.880866207596978</v>
+        <v>7.881771751978557</v>
       </c>
       <c r="E19">
-        <v>7.881172495427472</v>
+        <v>7.898769858305752</v>
       </c>
       <c r="F19">
-        <v>7.880633478667618</v>
+        <v>7.880528674294637</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.90641289149576</v>
+        <v>7.91847855065491</v>
       </c>
       <c r="C20">
-        <v>7.925969420051937</v>
+        <v>7.909166991400455</v>
       </c>
       <c r="D20">
-        <v>7.906899209871777</v>
+        <v>7.90783228529247</v>
       </c>
       <c r="E20">
-        <v>7.907204561694249</v>
+        <v>7.925836669256823</v>
       </c>
       <c r="F20">
-        <v>7.906612269712356</v>
+        <v>7.906536690406694</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.932291610939815</v>
+        <v>7.945143298992483</v>
       </c>
       <c r="C21">
-        <v>7.95293053091551</v>
+        <v>7.93527302706805</v>
       </c>
       <c r="D21">
-        <v>7.932863621608863</v>
+        <v>7.933823381762233</v>
       </c>
       <c r="E21">
-        <v>7.933166961410441</v>
+        <v>7.952796161003085</v>
       </c>
       <c r="F21">
-        <v>7.932520075797863</v>
+        <v>7.932478752561486</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.958097962174046</v>
+        <v>7.971741742550388</v>
       </c>
       <c r="C22">
-        <v>7.979782570965525</v>
+        <v>7.961309919975458</v>
       </c>
       <c r="D22">
-        <v>7.958759536193187</v>
+        <v>7.959745477207071</v>
       </c>
       <c r="E22">
-        <v>7.959060034931074</v>
+        <v>7.979647885590992</v>
       </c>
       <c r="F22">
-        <v>7.958357320238279</v>
+        <v>7.958355169434975</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.983832404181958</v>
+        <v>7.998272580367283</v>
       </c>
       <c r="C23">
-        <v>8.006525512578966</v>
+        <v>7.987277520298551</v>
       </c>
       <c r="D23">
-        <v>7.984586991023941</v>
+        <v>7.985598961288899</v>
       </c>
       <c r="E23">
-        <v>7.984884079544738</v>
+        <v>8.006391533794298</v>
       </c>
       <c r="F23">
-        <v>7.984124370152741</v>
+        <v>7.984166155180131</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.009495350928393</v>
+        <v>8.024734442030475</v>
       </c>
       <c r="C24">
-        <v>8.033159360691297</v>
+        <v>8.013175639869266</v>
       </c>
       <c r="D24">
-        <v>8.010345970765691</v>
+        <v>8.011384174338906</v>
       </c>
       <c r="E24">
-        <v>8.010639350731248</v>
+        <v>8.033026894493091</v>
       </c>
       <c r="F24">
-        <v>8.009821538514768</v>
+        <v>8.009911839287659</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.035087172254675</v>
+        <v>8.051125904834809</v>
       </c>
       <c r="C25">
-        <v>8.059684141522446</v>
+        <v>8.039004072541738</v>
       </c>
       <c r="D25">
-        <v>8.036036410459841</v>
+        <v>8.037101411829878</v>
       </c>
       <c r="E25">
-        <v>8.036326063385358</v>
+        <v>8.059553827229694</v>
       </c>
       <c r="F25">
-        <v>8.035449086161689</v>
+        <v>8.035592271858947</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>8.060608194790037</v>
+        <v>8.077445509725159</v>
       </c>
       <c r="C26">
-        <v>8.086099895475996</v>
+        <v>8.064762591035924</v>
       </c>
       <c r="D26">
-        <v>8.061658198502071</v>
+        <v>8.06275092271553</v>
       </c>
       <c r="E26">
-        <v>8.061944393006563</v>
+        <v>8.085972242956151</v>
       </c>
       <c r="F26">
-        <v>8.061007223764317</v>
+        <v>8.061207431439518</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>8.086058702876539</v>
+        <v>8.103691775974164</v>
       </c>
       <c r="C27">
-        <v>8.112406672575624</v>
+        <v>8.090450942523645</v>
       </c>
       <c r="D27">
-        <v>8.087211179490566</v>
+        <v>8.088332911358382</v>
       </c>
       <c r="E27">
-        <v>8.087494476855188</v>
+        <v>8.112282090169545</v>
       </c>
       <c r="F27">
-        <v>8.086496113756565</v>
+        <v>8.086757229882908</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>8.111438939506684</v>
+        <v>8.129863214312037</v>
       </c>
       <c r="C28">
-        <v>8.138604529476297</v>
+        <v>8.116068855687127</v>
       </c>
       <c r="D28">
-        <v>8.112695156949746</v>
+        <v>8.113847538273113</v>
       </c>
       <c r="E28">
-        <v>8.112976415074508</v>
+        <v>8.138483345392107</v>
       </c>
       <c r="F28">
-        <v>8.111915872225023</v>
+        <v>8.11224151427928</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>8.136749107273145</v>
+        <v>8.155958338444231</v>
       </c>
       <c r="C29">
-        <v>8.16469352747219</v>
+        <v>8.141616037261638</v>
       </c>
       <c r="D29">
-        <v>8.138109895934191</v>
+        <v>8.139294920348048</v>
       </c>
       <c r="E29">
-        <v>8.138390271779429</v>
+        <v>8.164576006182196</v>
       </c>
       <c r="F29">
-        <v>8.137266570758484</v>
+        <v>8.137660080956689</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>8.161989369328134</v>
+        <v>8.181975674337469</v>
       </c>
       <c r="C30">
-        <v>8.190673731146836</v>
+        <v>8.167092172994103</v>
       </c>
       <c r="D30">
-        <v>8.163455125517117</v>
+        <v>8.164675132354406</v>
       </c>
       <c r="E30">
-        <v>8.163736076111537</v>
+        <v>8.190560086028389</v>
       </c>
       <c r="F30">
-        <v>8.162548238257184</v>
+        <v>8.163012672290877</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>8.187159850352677</v>
+        <v>8.207913768715665</v>
       </c>
       <c r="C31">
-        <v>8.216545207444286</v>
+        <v>8.192496930024559</v>
       </c>
       <c r="D31">
-        <v>8.188730541167724</v>
+        <v>8.18998820750649</v>
       </c>
       <c r="E31">
-        <v>8.189013823260851</v>
+        <v>8.216435610440955</v>
       </c>
       <c r="F31">
-        <v>8.18776086270115</v>
+        <v>8.188298979896754</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>8.212260637533422</v>
+        <v>8.233771196035914</v>
       </c>
       <c r="C32">
-        <v>8.242308025020735</v>
+        <v>8.217829955114976</v>
       </c>
       <c r="D32">
-        <v>8.21393580702159</v>
+        <v>8.215234138239198</v>
       </c>
       <c r="E32">
-        <v>8.214223475454219</v>
+        <v>8.242202614409655</v>
       </c>
       <c r="F32">
-        <v>8.212904392883017</v>
+        <v>8.213518652266066</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>8.237291781546475</v>
+        <v>8.25954656326412</v>
       </c>
       <c r="C33">
-        <v>8.267962253785779</v>
+        <v>8.243090878084706</v>
       </c>
       <c r="D33">
-        <v>8.239070558048164</v>
+        <v>8.240412878073712</v>
       </c>
       <c r="E33">
-        <v>8.239364962910692</v>
+        <v>8.267861140356912</v>
       </c>
       <c r="F33">
-        <v>8.237978740097214</v>
+        <v>8.238671294243149</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>8.262253297547019</v>
+        <v>8.285238514265513</v>
       </c>
       <c r="C34">
-        <v>8.293507964573681</v>
+        <v>8.268279311699354</v>
       </c>
       <c r="D34">
-        <v>8.264134402119309</v>
+        <v>8.265524340853588</v>
       </c>
       <c r="E34">
-        <v>8.264438184764117</v>
+        <v>8.293411236380209</v>
       </c>
       <c r="F34">
-        <v>8.262983779786406</v>
+        <v>8.263756474420077</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>8.287145166163292</v>
+        <v>8.310845732831268</v>
       </c>
       <c r="C35">
-        <v>8.318945228904962</v>
+        <v>8.293394852443694</v>
       </c>
       <c r="D35">
-        <v>8.289126921982538</v>
+        <v>8.29056840239255</v>
       </c>
       <c r="E35">
-        <v>8.289443009953109</v>
+        <v>8.318852955090563</v>
       </c>
       <c r="F35">
-        <v>8.287919353153811</v>
+        <v>8.288773725674181</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>8.311967334494286</v>
+        <v>8.336366945055135</v>
       </c>
       <c r="C36">
-        <v>8.344274118811716</v>
+        <v>8.318437082364904</v>
       </c>
       <c r="D36">
-        <v>8.314047677142678</v>
+        <v>8.315544902984554</v>
       </c>
       <c r="E36">
-        <v>8.314379278078858</v>
+        <v>8.344186352731008</v>
       </c>
       <c r="F36">
-        <v>8.312785268734903</v>
+        <v>8.313722551353022</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>8.336719717109611</v>
+        <v>8.361800920811408</v>
       </c>
       <c r="C37">
-        <v>8.369494706708021</v>
+        <v>8.343405568745508</v>
       </c>
       <c r="D37">
-        <v>8.338896205655514</v>
+        <v>8.340453645803484</v>
       </c>
       <c r="E37">
-        <v>8.339246800230832</v>
+        <v>8.369411488441049</v>
       </c>
       <c r="F37">
-        <v>8.337581303930062</v>
+        <v>8.338602426787348</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>8.361402197050785</v>
+        <v>8.387146474768169</v>
       </c>
       <c r="C38">
-        <v>8.394607065293012</v>
+        <v>8.368299865632018</v>
       </c>
       <c r="D38">
-        <v>8.363672025836744</v>
+        <v>8.36529439827879</v>
       </c>
       <c r="E38">
-        <v>8.364045359781089</v>
+        <v>8.39452842370858</v>
       </c>
       <c r="F38">
-        <v>8.362307206496707</v>
+        <v>8.363412801557521</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>8.386014626832736</v>
+        <v>8.412402466687464</v>
       </c>
       <c r="C39">
-        <v>8.419611267477647</v>
+        <v>8.393119514106617</v>
       </c>
       <c r="D39">
-        <v>8.388374637889774</v>
+        <v>8.390066894731637</v>
       </c>
       <c r="E39">
-        <v>8.388774713147546</v>
+        <v>8.419537221927667</v>
       </c>
       <c r="F39">
-        <v>8.386962696004231</v>
+        <v>8.388153103542759</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>8.410556829444534</v>
+        <v>8.437567801526967</v>
       </c>
       <c r="C40">
-        <v>8.44450738632889</v>
+        <v>8.417864042846377</v>
       </c>
       <c r="D40">
-        <v>8.413003525455213</v>
+        <v>8.41477083708063</v>
       </c>
       <c r="E40">
-        <v>8.413434590526764</v>
+        <v>8.44443794799159</v>
       </c>
       <c r="F40">
-        <v>8.411547465251436</v>
+        <v>8.412822739327011</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>8.435028599348319</v>
+        <v>8.462641429120911</v>
       </c>
       <c r="C41">
-        <v>8.469295495026822</v>
+        <v>8.44253296920887</v>
       </c>
       <c r="D41">
-        <v>8.43755815708545</v>
+        <v>8.439405893052784</v>
       </c>
       <c r="E41">
-        <v>8.438024696596873</v>
+        <v>8.469230668026642</v>
       </c>
       <c r="F41">
-        <v>8.436061181644618</v>
+        <v>8.437421097041964</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>8.459429703475561</v>
+        <v>8.487622343666411</v>
       </c>
       <c r="C42">
-        <v>8.493975666831409</v>
+        <v>8.467125799422938</v>
       </c>
       <c r="D42">
-        <v>8.462037987647172</v>
+        <v>8.463971699787265</v>
       </c>
       <c r="E42">
-        <v>8.462544711191249</v>
+        <v>8.493915449185499</v>
       </c>
       <c r="F42">
-        <v>8.460503488538745</v>
+        <v>8.461947547975962</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>8.483759882219507</v>
+        <v>8.512509582867665</v>
       </c>
       <c r="C43">
-        <v>8.518547975056528</v>
+        <v>8.491642029724579</v>
       </c>
       <c r="D43">
-        <v>8.486442459654723</v>
+        <v>8.48846786554895</v>
       </c>
       <c r="E43">
-        <v>8.48699428994404</v>
+        <v>8.518492359545657</v>
       </c>
       <c r="F43">
-        <v>8.484874006540919</v>
+        <v>8.48640144924936</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>8.508018850423072</v>
+        <v>8.537302226903526</v>
       </c>
       <c r="C44">
-        <v>8.543012493049652</v>
+        <v>8.516081146840127</v>
       </c>
       <c r="D44">
-        <v>8.510771004537194</v>
+        <v>8.512893967545732</v>
       </c>
       <c r="E44">
-        <v>8.511373064908252</v>
+        <v>8.542961467912885</v>
       </c>
       <c r="F44">
-        <v>8.509172334778631</v>
+        <v>8.510782145406605</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>8.532206298361229</v>
+        <v>8.561999397251117</v>
       </c>
       <c r="C45">
-        <v>8.567369294175727</v>
+        <v>8.54044262872341</v>
       </c>
       <c r="D45">
-        <v>8.535023043841759</v>
+        <v>8.537249555103573</v>
       </c>
       <c r="E45">
-        <v>8.535680645147751</v>
+        <v>8.567322843640433</v>
       </c>
       <c r="F45">
-        <v>8.533398052130298</v>
+        <v>8.535088969821665</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>8.55632189271684</v>
+        <v>8.586600255691719</v>
       </c>
       <c r="C46">
-        <v>8.591618451804289</v>
+        <v>8.564725945259257</v>
       </c>
       <c r="D46">
-        <v>8.559197990376012</v>
+        <v>8.561534151113021</v>
       </c>
       <c r="E46">
-        <v>8.559916617304143</v>
+        <v>8.59157655655539</v>
       </c>
       <c r="F46">
-        <v>8.55755071842016</v>
+        <v>8.559321247076145</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>8.580365277549571</v>
+        <v>8.611104002982247</v>
       </c>
       <c r="C47">
-        <v>8.615760039299236</v>
+        <v>8.588930558853903</v>
       </c>
       <c r="D47">
-        <v>8.583295249291773</v>
+        <v>8.585747251406497</v>
       </c>
       <c r="E47">
-        <v>8.584080546140203</v>
+        <v>8.615722676898178</v>
       </c>
       <c r="F47">
-        <v>8.581629875577928</v>
+        <v>8.583478293470003</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>8.60433607525639</v>
+        <v>8.635509877482088</v>
       </c>
       <c r="C48">
-        <v>8.63979413001055</v>
+        <v>8.613055925178605</v>
       </c>
       <c r="D48">
-        <v>8.60731421911278</v>
+        <v>8.609888326511891</v>
       </c>
       <c r="E48">
-        <v>8.608171975061595</v>
+        <v>8.639761275254902</v>
       </c>
       <c r="F48">
-        <v>8.605635048762959</v>
+        <v>8.607559419365753</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>8.628233887523553</v>
+        <v>8.659817153827101</v>
       </c>
       <c r="C49">
-        <v>8.663720797267585</v>
+        <v>8.637101492652356</v>
       </c>
       <c r="D49">
-        <v>8.631254292708658</v>
+        <v>8.633956823067029</v>
       </c>
       <c r="E49">
-        <v>8.63219042661804</v>
+        <v>8.663692422489746</v>
       </c>
       <c r="F49">
-        <v>8.62956574745578</v>
+        <v>8.631563929578974</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>8.652058296268949</v>
+        <v>8.684025141685813</v>
       </c>
       <c r="C50">
-        <v>8.687540114373645</v>
+        <v>8.661066705280476</v>
       </c>
       <c r="D50">
-        <v>8.655114858217305</v>
+        <v>8.657952164543103</v>
       </c>
       <c r="E50">
-        <v>8.656135402987672</v>
+        <v>8.687516189704512</v>
       </c>
       <c r="F50">
-        <v>8.653421466513331</v>
+        <v>8.655491125116257</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>8.67580886457392</v>
+        <v>8.708133184440214</v>
       </c>
       <c r="C51">
-        <v>8.711252154601535</v>
+        <v>8.684951001851498</v>
       </c>
       <c r="D51">
-        <v>8.678895299918016</v>
+        <v>8.681873751739719</v>
       </c>
       <c r="E51">
-        <v>8.680006386445129</v>
+        <v>8.711232648203119</v>
       </c>
       <c r="F51">
-        <v>8.677201687192087</v>
+        <v>8.679340304069866</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>8.699485137604549</v>
+        <v>8.732140657691314</v>
       </c>
       <c r="C52">
-        <v>8.734856991189922</v>
+        <v>8.708753816312173</v>
       </c>
       <c r="D52">
-        <v>8.702594999057354</v>
+        <v>8.705720964514711</v>
       </c>
       <c r="E52">
-        <v>8.703802839817417</v>
+        <v>8.734841869457588</v>
       </c>
       <c r="F52">
-        <v>8.700905878137773</v>
+        <v>8.703110762450036</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>8.723086643520864</v>
+        <v>8.756046968125258</v>
       </c>
       <c r="C53">
-        <v>8.758354697340325</v>
+        <v>8.732474577088574</v>
       </c>
       <c r="D53">
-        <v>8.72621333462981</v>
+        <v>8.729493163129307</v>
       </c>
       <c r="E53">
-        <v>8.727524206930093</v>
+        <v>8.758343925068528</v>
       </c>
       <c r="F53">
-        <v>8.724533496343019</v>
+        <v>8.726801795697979</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>8.746612894374399</v>
+        <v>8.779851552109664</v>
       </c>
       <c r="C54">
-        <v>8.781745346214613</v>
+        <v>8.756112711733234</v>
       </c>
       <c r="D54">
-        <v>8.749749684115256</v>
+        <v>8.753189688026298</v>
       </c>
       <c r="E54">
-        <v>8.751169913047407</v>
+        <v>8.781738886751761</v>
       </c>
       <c r="F54">
-        <v>8.748083988073736</v>
+        <v>8.750412698886828</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>8.770063386992316</v>
+        <v>8.803553874497563</v>
       </c>
       <c r="C55">
-        <v>8.805029010933021</v>
+        <v>8.779667644357865</v>
       </c>
       <c r="D55">
-        <v>8.773203424174961</v>
+        <v>8.776809861773526</v>
       </c>
       <c r="E55">
-        <v>8.774739365310189</v>
+        <v>8.805026826286664</v>
       </c>
       <c r="F55">
-        <v>8.771556789763043</v>
+        <v>8.773942768260669</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>8.793437603848426</v>
+        <v>8.827153427445758</v>
       </c>
       <c r="C56">
-        <v>8.828205764572395</v>
+        <v>8.803138795037016</v>
       </c>
       <c r="D56">
-        <v>8.796573931308057</v>
+        <v>8.800352990684523</v>
       </c>
       <c r="E56">
-        <v>8.798231953175787</v>
+        <v>8.828207815525888</v>
       </c>
       <c r="F56">
-        <v>8.794951328875333</v>
+        <v>8.797391301377052</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>8.816735013920576</v>
+        <v>8.850649729273593</v>
       </c>
       <c r="C57">
-        <v>8.851275680164781</v>
+        <v>8.826525581921844</v>
       </c>
       <c r="D57">
-        <v>8.819860582470183</v>
+        <v>8.82381836443634</v>
       </c>
       <c r="E57">
-        <v>8.821647048864719</v>
+        <v>8.851281926383217</v>
       </c>
       <c r="F57">
-        <v>8.818267024739662</v>
+        <v>8.820757598366407</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>8.839955073532957</v>
+        <v>8.874042323246346</v>
       </c>
       <c r="C58">
-        <v>8.874238830696246</v>
+        <v>8.849827423632913</v>
       </c>
       <c r="D58">
-        <v>8.843062755655986</v>
+        <v>8.847205258007625</v>
       </c>
       <c r="E58">
-        <v>8.844984007819143</v>
+        <v>8.874249230846077</v>
       </c>
       <c r="F58">
-        <v>8.841503289354716</v>
+        <v>8.844040962134613</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>8.863097227184511</v>
+        <v>8.897330776681949</v>
       </c>
       <c r="C59">
-        <v>8.897095289105888</v>
+        <v>8.873043737289747</v>
       </c>
       <c r="D59">
-        <v>8.866179830447059</v>
+        <v>8.87051293284765</v>
       </c>
       <c r="E59">
-        <v>8.868242169178664</v>
+        <v>8.897109800921788</v>
       </c>
       <c r="F59">
-        <v>8.86465952816393</v>
+        <v>8.867240699263121</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>8.886160908361164</v>
+        <v>8.920514679638563</v>
       </c>
       <c r="C60">
-        <v>8.919845128285015</v>
+        <v>8.896173936597672</v>
       </c>
       <c r="D60">
-        <v>8.889211188526634</v>
+        <v>8.893740637652542</v>
       </c>
       <c r="E60">
-        <v>8.891420856279368</v>
+        <v>8.919863708665117</v>
       </c>
       <c r="F60">
-        <v>8.887735140802359</v>
+        <v>8.890356120436383</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>8.909145540332997</v>
+        <v>8.943593644198133</v>
       </c>
       <c r="C61">
-        <v>8.942488421076449</v>
+        <v>8.919217437869843</v>
       </c>
       <c r="D61">
-        <v>8.912156214163133</v>
+        <v>8.916887609272475</v>
       </c>
       <c r="E61">
-        <v>8.914519377182184</v>
+        <v>8.942511026125693</v>
       </c>
       <c r="F61">
-        <v>8.910729521816027</v>
+        <v>8.913386540868458</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>8.932050536935311</v>
+        <v>8.96656730323881</v>
       </c>
       <c r="C62">
-        <v>8.965025240273938</v>
+        <v>8.942173657479323</v>
       </c>
       <c r="D62">
-        <v>8.935014294665056</v>
+        <v>8.939953074048065</v>
       </c>
       <c r="E62">
-        <v>8.9375370252371</v>
+        <v>8.965051825354925</v>
       </c>
       <c r="F62">
-        <v>8.933642061353623</v>
+        <v>8.936331281056567</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>8.954875303332928</v>
+        <v>8.98943530967461</v>
       </c>
       <c r="C63">
-        <v>8.987455658621695</v>
+        <v>8.965042012120172</v>
       </c>
       <c r="D63">
-        <v>8.957784820803292</v>
+        <v>8.962936248817625</v>
       </c>
       <c r="E63">
-        <v>8.960473079689505</v>
+        <v>8.987486178443573</v>
       </c>
       <c r="F63">
-        <v>8.956472145833176</v>
+        <v>8.959189666823123</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>8.977619236768703</v>
+        <v>9.012197335545343</v>
       </c>
       <c r="C64">
-        <v>9.009779748813978</v>
+        <v>8.987821917506563</v>
       </c>
       <c r="D64">
-        <v>8.980467187209356</v>
+        <v>8.985836341863248</v>
       </c>
       <c r="E64">
-        <v>8.983326806335356</v>
+        <v>9.009814157445062</v>
       </c>
       <c r="F64">
-        <v>8.979219158580882</v>
+        <v>8.98196103006522</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>9.000281727294098</v>
+        <v>9.034853071072236</v>
       </c>
       <c r="C65">
-        <v>9.031997583494761</v>
+        <v>9.01051279356914</v>
       </c>
       <c r="D65">
-        <v>9.003060792746602</v>
+        <v>9.008652554042119</v>
       </c>
       <c r="E65">
-        <v>9.006097458231025</v>
+        <v>9.032035834369578</v>
       </c>
       <c r="F65">
-        <v>9.001882480445648</v>
+        <v>9.004644708620821</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>9.022862158483544</v>
+        <v>9.057402224084962</v>
       </c>
       <c r="C66">
-        <v>9.054109235257457</v>
+        <v>9.033114061347058</v>
       </c>
       <c r="D66">
-        <v>9.025565040857098</v>
+        <v>9.031384079498901</v>
       </c>
       <c r="E66">
-        <v>9.028784276463705</v>
+        <v>9.054151281285915</v>
       </c>
       <c r="F66">
-        <v>9.024461490388521</v>
+        <v>9.027240047569974</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>9.045359908130939</v>
+        <v>9.079844518945983</v>
       </c>
       <c r="C67">
-        <v>9.076114776644694</v>
+        <v>9.055625143202318</v>
       </c>
       <c r="D67">
-        <v>9.047979339883197</v>
+        <v>9.054030107306794</v>
       </c>
       <c r="E67">
-        <v>9.051386490987218</v>
+        <v>9.076160570249536</v>
       </c>
       <c r="F67">
-        <v>9.046955566048076</v>
+        <v>9.049746398435431</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>9.067774348928577</v>
+        <v>9.102179696121111</v>
       </c>
       <c r="C68">
-        <v>9.098014280148115</v>
+        <v>9.078045463437116</v>
       </c>
       <c r="D68">
-        <v>9.070303103368452</v>
+        <v>9.076589822114357</v>
       </c>
       <c r="E68">
-        <v>9.07390332152705</v>
+        <v>9.098063773171599</v>
       </c>
       <c r="F68">
-        <v>9.0693640842828</v>
+        <v>9.072163120017803</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>9.090104849129039</v>
+        <v>9.124407511237303</v>
       </c>
       <c r="C69">
-        <v>9.119807818208248</v>
+        <v>9.100374450961128</v>
       </c>
       <c r="D69">
-        <v>9.092535750335538</v>
+        <v>9.099062404761508</v>
       </c>
       <c r="E69">
-        <v>9.096333978557261</v>
+        <v>9.119860962005379</v>
       </c>
       <c r="F69">
-        <v>9.091686421689484</v>
+        <v>9.094489579718573</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>9.112350773188272</v>
+        <v>9.146527734584156</v>
       </c>
       <c r="C70">
-        <v>9.141495463214362</v>
+        <v>9.12261153742074</v>
       </c>
       <c r="D70">
-        <v>9.114676705544612</v>
+        <v>9.121447033929341</v>
       </c>
       <c r="E70">
-        <v>9.118677664350036</v>
+        <v>9.141552208818313</v>
       </c>
       <c r="F70">
-        <v>9.113921955099888</v>
+        <v>9.116725150406534</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>9.134511482391998</v>
+        <v>9.168540150419553</v>
       </c>
       <c r="C71">
-        <v>9.163077287504386</v>
+        <v>9.144756156155591</v>
       </c>
       <c r="D71">
-        <v>9.136725399731633</v>
+        <v>9.143742887128981</v>
       </c>
       <c r="E71">
-        <v>9.14093357409751</v>
+        <v>9.16313758543289</v>
       </c>
       <c r="F71">
-        <v>9.136070062055198</v>
+        <v>9.138869214665984</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>9.156586335463146</v>
+        <v>9.19044455630166</v>
       </c>
       <c r="C72">
-        <v>9.18455336336484</v>
+        <v>9.166807745601</v>
       </c>
       <c r="D72">
-        <v>9.15868126982846</v>
+        <v>9.1659491410485</v>
       </c>
       <c r="E72">
-        <v>9.163100897101735</v>
+        <v>9.184617163699688</v>
       </c>
       <c r="F72">
-        <v>9.158130121259973</v>
+        <v>9.160921163016278</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>9.178574689151814</v>
+        <v>9.212240762671648</v>
       </c>
       <c r="C73">
-        <v>9.205923763030773</v>
+        <v>9.188765748677127</v>
       </c>
       <c r="D73">
-        <v>9.18054375916523</v>
+        <v>9.188064972463701</v>
       </c>
       <c r="E73">
-        <v>9.185178818028851</v>
+        <v>9.205991015585939</v>
       </c>
       <c r="F73">
-        <v>9.180101513014909</v>
+        <v>9.182880392554887</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>9.20047589880741</v>
+        <v>9.233928592086006</v>
       </c>
       <c r="C74">
-        <v>9.227188558685732</v>
+        <v>9.210629612363579</v>
       </c>
       <c r="D74">
-        <v>9.202312317655805</v>
+        <v>9.210089560475248</v>
       </c>
       <c r="E74">
-        <v>9.207166518219351</v>
+        <v>9.227259212868407</v>
       </c>
       <c r="F74">
-        <v>9.201983619629496</v>
+        <v>9.204746310410679</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>9.222289318932079</v>
+        <v>9.255507878917408</v>
       </c>
       <c r="C75">
-        <v>9.248347822461737</v>
+        <v>9.2323987857189</v>
       </c>
       <c r="D75">
-        <v>9.223986401967798</v>
+        <v>9.232022086279089</v>
       </c>
       <c r="E75">
-        <v>9.229063177045129</v>
+        <v>9.248421827338362</v>
       </c>
       <c r="F75">
-        <v>9.223775825815347</v>
+        <v>9.226518331449261</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>9.244014303717258</v>
+        <v>9.276978468669508</v>
       </c>
       <c r="C76">
-        <v>9.269401626439274</v>
+        <v>9.25407272563792</v>
       </c>
       <c r="D76">
-        <v>9.245565475676836</v>
+        <v>9.253861732951943</v>
       </c>
       <c r="E76">
-        <v>9.250867973301826</v>
+        <v>9.269478930780009</v>
       </c>
       <c r="F76">
-        <v>9.245477519060184</v>
+        <v>9.248195878701432</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>9.265650207561226</v>
+        <v>9.298340217627619</v>
       </c>
       <c r="C77">
-        <v>9.290350042647297</v>
+        <v>9.27565089324921</v>
       </c>
       <c r="D77">
-        <v>9.267049009407007</v>
+        <v>9.275607689386213</v>
       </c>
       <c r="E77">
-        <v>9.272580086623465</v>
+        <v>9.290430594928875</v>
       </c>
       <c r="F77">
-        <v>9.267088089984536</v>
+        <v>9.269778384533021</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>9.287196385569645</v>
+        <v>9.319592992369667</v>
       </c>
       <c r="C78">
-        <v>9.311193143063239</v>
+        <v>9.297132754341803</v>
       </c>
       <c r="D78">
-        <v>9.288436480957225</v>
+        <v>9.297259149164688</v>
       </c>
       <c r="E78">
-        <v>9.294198698905115</v>
+        <v>9.311276891483478</v>
       </c>
       <c r="F78">
-        <v>9.28860693267919</v>
+        <v>9.291265289436536</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>9.308652194038114</v>
+        <v>9.340736669281327</v>
       </c>
       <c r="C79">
-        <v>9.331930999613023</v>
+        <v>9.318517779061974</v>
       </c>
       <c r="D79">
-        <v>9.309727375415267</v>
+        <v>9.318815310090647</v>
       </c>
       <c r="E79">
-        <v>9.315722995718749</v>
+        <v>9.332017892086771</v>
       </c>
       <c r="F79">
-        <v>9.310033445026068</v>
+        <v>9.312656042885667</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>9.330016990916816</v>
+        <v>9.361771134272374</v>
       </c>
       <c r="C80">
-        <v>9.352563684171106</v>
+        <v>9.339805445265572</v>
       </c>
       <c r="D80">
-        <v>9.330921185258877</v>
+        <v>9.340275377815857</v>
       </c>
       <c r="E80">
-        <v>9.33715216770721</v>
+        <v>9.352653668328317</v>
       </c>
       <c r="F80">
-        <v>9.331367029002044</v>
+        <v>9.33395010340459</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>9.3512901362585</v>
+        <v>9.382696282222987</v>
       </c>
       <c r="C81">
-        <v>9.373091268560493</v>
+        <v>9.360995236104548</v>
       </c>
       <c r="D81">
-        <v>9.352017410445971</v>
+        <v>9.361638565718842</v>
       </c>
       <c r="E81">
-        <v>9.358485411941666</v>
+        <v>9.373184291776363</v>
       </c>
       <c r="F81">
-        <v>9.352607090966524</v>
+        <v>9.35514693788407</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>9.372470992648095</v>
+        <v>9.403512016772501</v>
       </c>
       <c r="C82">
-        <v>9.393513824552784</v>
+        <v>9.382086639479096</v>
       </c>
       <c r="D82">
-        <v>9.373015558493197</v>
+        <v>9.382904094206008</v>
       </c>
       <c r="E82">
-        <v>9.379721933228886</v>
+        <v>9.393609833950476</v>
       </c>
       <c r="F82">
-        <v>9.373753041933686</v>
+        <v>9.376246022680903</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>9.393558925616254</v>
+        <v>9.42421824983286</v>
       </c>
       <c r="C83">
-        <v>9.41383142386821</v>
+        <v>9.403079150009773</v>
       </c>
       <c r="D83">
-        <v>9.39391514454474</v>
+        <v>9.404071192004803</v>
       </c>
       <c r="E83">
-        <v>9.400860945355934</v>
+        <v>9.413930366355928</v>
       </c>
       <c r="F83">
-        <v>9.394804297828662</v>
+        <v>9.397246842867409</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>9.414553304035191</v>
+        <v>9.444814901333109</v>
       </c>
       <c r="C84">
-        <v>9.434044138175688</v>
+        <v>9.423972269476989</v>
       </c>
       <c r="D84">
-        <v>9.41471569143066</v>
+        <v>9.425139099159908</v>
       </c>
       <c r="E84">
-        <v>9.421901672261644</v>
+        <v>9.434145960414572</v>
       </c>
       <c r="F84">
-        <v>9.415760279729451</v>
+        <v>9.418148891939756</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>9.435453500497994</v>
+        <v>9.465301898877348</v>
       </c>
       <c r="C85">
-        <v>9.454152039092863</v>
+        <v>9.444765505959893</v>
       </c>
       <c r="D85">
-        <v>9.435416729716547</v>
+        <v>9.446107065185375</v>
       </c>
       <c r="E85">
-        <v>9.4428433491262</v>
+        <v>9.45425668751551</v>
       </c>
       <c r="F85">
-        <v>9.436620414094225</v>
+        <v>9.438951672979753</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>9.456258891681808</v>
+        <v>9.485679177391333</v>
       </c>
       <c r="C86">
-        <v>9.474155198186157</v>
+        <v>9.465458372097473</v>
       </c>
       <c r="D86">
-        <v>9.456017797743858</v>
+        <v>9.466974348170806</v>
       </c>
       <c r="E86">
-        <v>9.463685223372153</v>
+        <v>9.474262619042479</v>
       </c>
       <c r="F86">
-        <v>9.457384132975234</v>
+        <v>9.459654697507682</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>9.476968858693882</v>
+        <v>9.505946678925778</v>
       </c>
       <c r="C87">
-        <v>9.494053686970835</v>
+        <v>9.48605038968504</v>
       </c>
       <c r="D87">
-        <v>9.476518441662373</v>
+        <v>9.487740220684808</v>
       </c>
       <c r="E87">
-        <v>9.484426555572352</v>
+        <v>9.494163826287357</v>
       </c>
       <c r="F87">
-        <v>9.478050874219099</v>
+        <v>9.480257485847261</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>9.497582787402653</v>
+        <v>9.526104352258351</v>
       </c>
       <c r="C88">
-        <v>9.513847576911052</v>
+        <v>9.506541086812058</v>
       </c>
       <c r="D88">
-        <v>9.496918215454553</v>
+        <v>9.508403966772581</v>
       </c>
       <c r="E88">
-        <v>9.505066620262339</v>
+        <v>9.513960380508092</v>
       </c>
       <c r="F88">
-        <v>9.498620081654078</v>
+        <v>9.500759567456333</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>9.518100068752041</v>
+        <v>9.546152152742616</v>
       </c>
       <c r="C89">
-        <v>9.533536939419918</v>
+        <v>9.526929998300972</v>
       </c>
       <c r="D89">
-        <v>9.517216680952673</v>
+        <v>9.52896487999733</v>
       </c>
       <c r="E89">
-        <v>9.525604706656475</v>
+        <v>9.533652352912952</v>
       </c>
       <c r="F89">
-        <v>9.519091205265056</v>
+        <v>9.521160480182306</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>9.538520099060815</v>
+        <v>9.566090041960889</v>
       </c>
       <c r="C90">
-        <v>9.553121845859559</v>
+        <v>9.547216664872826</v>
       </c>
       <c r="D90">
-        <v>9.537413407848959</v>
+        <v>9.549422269933959</v>
       </c>
       <c r="E90">
-        <v>9.546040119268902</v>
+        <v>9.553239814660936</v>
       </c>
       <c r="F90">
-        <v>9.539463701356233</v>
+        <v>9.54145977087909</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>9.558842280306692</v>
+        <v>9.585917987537652</v>
       </c>
       <c r="C91">
-        <v>9.572602367541176</v>
+        <v>9.567400636305134</v>
       </c>
       <c r="D91">
-        <v>9.557507973699138</v>
+        <v>9.569775459557761</v>
       </c>
       <c r="E91">
-        <v>9.566372178441711</v>
+        <v>9.572722836956427</v>
       </c>
       <c r="F91">
-        <v>9.559737032702969</v>
+        <v>9.561656995075328</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>9.579066020394995</v>
+        <v>9.605635962896416</v>
       </c>
       <c r="C92">
-        <v>9.591978575725104</v>
+        <v>9.587481469192801</v>
       </c>
       <c r="D92">
-        <v>9.577499963919951</v>
+        <v>9.590023783973143</v>
       </c>
       <c r="E92">
-        <v>9.586600220784009</v>
+        <v>9.592101490835818</v>
       </c>
       <c r="F92">
-        <v>9.579910668691555</v>
+        <v>9.581751716762474</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>9.599190733413478</v>
+        <v>9.625243947002408</v>
       </c>
       <c r="C93">
-        <v>9.611250541620887</v>
+        <v>9.607458726684028</v>
       </c>
       <c r="D93">
-        <v>9.597388971780711</v>
+        <v>9.610166592601045</v>
       </c>
       <c r="E93">
-        <v>9.606723599526287</v>
+        <v>9.611375847327908</v>
       </c>
       <c r="F93">
-        <v>9.599984085448705</v>
+        <v>9.601743508762931</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>9.619215839871867</v>
+        <v>9.644741924220897</v>
       </c>
       <c r="C94">
-        <v>9.630418336387336</v>
+        <v>9.627331979347005</v>
       </c>
       <c r="D94">
-        <v>9.617174598389632</v>
+        <v>9.630203251641786</v>
       </c>
       <c r="E94">
-        <v>9.626741684795341</v>
+        <v>9.630545977410765</v>
       </c>
       <c r="F94">
-        <v>9.619956765960545</v>
+        <v>9.621631952335292</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>9.639140766928097</v>
+        <v>9.664129884031823</v>
       </c>
       <c r="C95">
-        <v>9.649482031132598</v>
+        <v>9.647100806259772</v>
       </c>
       <c r="D95">
-        <v>9.636856452674831</v>
+        <v>9.650133141146123</v>
       </c>
       <c r="E95">
-        <v>9.646653863815338</v>
+        <v>9.649611952011899</v>
       </c>
       <c r="F95">
-        <v>9.639828200181618</v>
+        <v>9.641416637148561</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>9.658964948600444</v>
+        <v>9.683407820917033</v>
       </c>
       <c r="C96">
-        <v>9.668441696914213</v>
+        <v>9.666764793813705</v>
       </c>
       <c r="D96">
-        <v>9.656434151360827</v>
+        <v>9.669955654106971</v>
       </c>
       <c r="E96">
-        <v>9.666459541040856</v>
+        <v>9.668573842117251</v>
       </c>
       <c r="F96">
-        <v>9.659597885134614</v>
+        <v>9.66109716146628</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>9.678687825966142</v>
+        <v>9.702575734146354</v>
       </c>
       <c r="C97">
-        <v>9.687297404739198</v>
+        <v>9.686323534610954</v>
       </c>
       <c r="D97">
-        <v>9.67590731894027</v>
+        <v>9.68967020274736</v>
       </c>
       <c r="E97">
-        <v>9.686158138227849</v>
+        <v>9.687431718528027</v>
       </c>
       <c r="F97">
-        <v>9.679265325000374</v>
+        <v>9.680673131717382</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>9.698308847347432</v>
+        <v>9.721633627600152</v>
       </c>
       <c r="C98">
-        <v>9.706049225564096</v>
+        <v>9.705776630274233</v>
       </c>
       <c r="D98">
-        <v>9.695275587641801</v>
+        <v>9.709276214477756</v>
       </c>
       <c r="E98">
-        <v>9.705749094448455</v>
+        <v>9.706185652045848</v>
       </c>
       <c r="F98">
-        <v>9.698830031199341</v>
+        <v>9.700144162684008</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>9.717827468484041</v>
+        <v>9.740581509481363</v>
       </c>
       <c r="C99">
-        <v>9.724697230295057</v>
+        <v>9.725123690054069</v>
       </c>
       <c r="D99">
-        <v>9.714538597393714</v>
+        <v>9.728773130242494</v>
       </c>
       <c r="E99">
-        <v>9.725231866055328</v>
+        <v>9.724835713423655</v>
       </c>
       <c r="F99">
-        <v>9.718291522464343</v>
+        <v>9.719509877414474</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>9.737243152694118</v>
+        <v>9.759419392522222</v>
       </c>
       <c r="C100">
-        <v>9.743241489787895</v>
+        <v>9.744364330751564</v>
       </c>
       <c r="D100">
-        <v>9.733695995784259</v>
+        <v>9.748160409193718</v>
       </c>
       <c r="E100">
-        <v>9.744605926601011</v>
+        <v>9.743381973365446</v>
       </c>
       <c r="F100">
-        <v>9.737649324905439</v>
+        <v>9.738769906884922</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>9.756555371022344</v>
+        <v>9.778147293231445</v>
       </c>
       <c r="C101">
-        <v>9.761682074848164</v>
+        <v>9.763498175787754</v>
       </c>
       <c r="D101">
-        <v>9.752747438018309</v>
+        <v>9.767437525932708</v>
       </c>
       <c r="E101">
-        <v>9.763870766717519</v>
+        <v>9.761824502587574</v>
       </c>
       <c r="F101">
-        <v>9.756902972066802</v>
+        <v>9.757923890294347</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>9.775763602376591</v>
+        <v>9.796765232196041</v>
       </c>
       <c r="C102">
-        <v>9.780019056231216</v>
+        <v>9.782524857891199</v>
       </c>
       <c r="D102">
-        <v>9.771692586871103</v>
+        <v>9.786603971229935</v>
       </c>
       <c r="E102">
-        <v>9.783025893961387</v>
+        <v>9.780163371683784</v>
       </c>
       <c r="F102">
-        <v>9.77605200497602</v>
+        <v>9.776971474740566</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>9.794867333653308</v>
+        <v>9.815273234090261</v>
       </c>
       <c r="C103">
-        <v>9.798252504642285</v>
+        <v>9.801444017187624</v>
       </c>
       <c r="D103">
-        <v>9.790531112638877</v>
+        <v>9.805659252571644</v>
       </c>
       <c r="E103">
-        <v>9.802070832627654</v>
+        <v>9.79839865122791</v>
       </c>
       <c r="F103">
-        <v>9.795095972186305</v>
+        <v>9.795912315120646</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>9.8138660598513</v>
+        <v>9.833671326846334</v>
       </c>
       <c r="C104">
-        <v>9.816382490736533</v>
+        <v>9.820255301171677</v>
       </c>
       <c r="D104">
-        <v>9.809262693086938</v>
+        <v>9.824602893771312</v>
       </c>
       <c r="E104">
-        <v>9.821005123538328</v>
+        <v>9.816530411746838</v>
       </c>
       <c r="F104">
-        <v>9.814034429811674</v>
+        <v>9.814746074229314</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>9.832759284175451</v>
+        <v>9.851959542307794</v>
       </c>
       <c r="C105">
-        <v>9.834409085119134</v>
+        <v>9.83895836482559</v>
       </c>
       <c r="D105">
-        <v>9.827887013395149</v>
+        <v>9.843434435520933</v>
       </c>
       <c r="E105">
-        <v>9.839828323808135</v>
+        <v>9.834558723720397</v>
       </c>
       <c r="F105">
-        <v>9.832866941555938</v>
+        <v>9.833472422503503</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>9.85154651812933</v>
+        <v>9.870137915669536</v>
       </c>
       <c r="C106">
-        <v>9.852332358345331</v>
+        <v>9.857552871854409</v>
       </c>
       <c r="D106">
-        <v>9.846403766101155</v>
+        <v>9.862153434783185</v>
       </c>
       <c r="E106">
-        <v>9.858540006591516</v>
+        <v>9.852483657586893</v>
       </c>
       <c r="F106">
-        <v>9.851593078734927</v>
+        <v>9.852091037996052</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>9.870227281598185</v>
+        <v>9.888206485323359</v>
       </c>
       <c r="C107">
-        <v>9.870152380920514</v>
+        <v>9.876038493523032</v>
       </c>
       <c r="D107">
-        <v>9.864812651041477</v>
+        <v>9.88075946516032</v>
       </c>
       <c r="E107">
-        <v>9.877139760813771</v>
+        <v>9.870305283730758</v>
       </c>
       <c r="F107">
-        <v>9.870212420292949</v>
+        <v>9.870601606333985</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>9.888801102922047</v>
+        <v>9.906165293149964</v>
       </c>
       <c r="C108">
-        <v>9.887869223300275</v>
+        <v>9.894414908060096</v>
       </c>
       <c r="D108">
-        <v>9.883113375290646</v>
+        <v>9.899252117078992</v>
       </c>
       <c r="E108">
-        <v>9.895627190889263</v>
+        <v>9.888023672491713</v>
       </c>
       <c r="F108">
-        <v>9.888724552813425</v>
+        <v>9.889003820529402</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>9.907267518959202</v>
+        <v>9.924014383892054</v>
       </c>
       <c r="C109">
-        <v>9.905482955890479</v>
+        <v>9.912681802059158</v>
       </c>
       <c r="D109">
-        <v>9.901305653098609</v>
+        <v>9.917630996293925</v>
       </c>
       <c r="E109">
-        <v>9.914001916429182</v>
+        <v>9.905638894162307</v>
       </c>
       <c r="F109">
-        <v>9.907129070524009</v>
+        <v>9.907297380992489</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>9.925626075141036</v>
+        <v>9.941753805363797</v>
       </c>
       <c r="C110">
-        <v>9.922993649047337</v>
+        <v>9.930838870071698</v>
       </c>
       <c r="D110">
-        <v>9.919389205826453</v>
+        <v>9.935895725898533</v>
       </c>
       <c r="E110">
-        <v>9.932263571941112</v>
+        <v>9.923151018987818</v>
       </c>
       <c r="F110">
-        <v>9.925425575296789</v>
+        <v>9.925481995393412</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>9.943876325517522</v>
+        <v>9.959383608299596</v>
       </c>
       <c r="C111">
-        <v>9.940401373077462</v>
+        <v>9.948885814256515</v>
       </c>
       <c r="D111">
-        <v>9.937363761880725</v>
+        <v>9.954045944297887</v>
       </c>
       <c r="E111">
-        <v>9.950411806522407</v>
+        <v>9.940560117159922</v>
       </c>
       <c r="F111">
-        <v>9.943613676643146</v>
+        <v>9.943557378544147</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>9.962017832794803</v>
+        <v>9.97690384611326</v>
       </c>
       <c r="C112">
-        <v>9.95770619823794</v>
+        <v>9.966822343531383</v>
       </c>
       <c r="D112">
-        <v>9.95522905664637</v>
+        <v>9.972081306085759</v>
       </c>
       <c r="E112">
-        <v>9.968446283549136</v>
+        <v>9.957866258829927</v>
       </c>
       <c r="F112">
-        <v>9.96169299170398</v>
+        <v>9.961523252381106</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>9.980050168364293</v>
+        <v>9.994314575083056</v>
       </c>
       <c r="C113">
-        <v>9.974908194736395</v>
+        <v>9.984648175623873</v>
       </c>
       <c r="D113">
-        <v>9.972984832418534</v>
+        <v>9.990001481753184</v>
       </c>
       <c r="E113">
-        <v>9.986366680362146</v>
+        <v>9.975069514098736</v>
       </c>
       <c r="F113">
-        <v>9.979663145235437</v>
+        <v>9.979379345816634</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>9.997972912324013</v>
+        <v>10.01161585399206</v>
       </c>
       <c r="C114">
-        <v>9.992007432731054</v>
+        <v>10.00236303558842</v>
       </c>
       <c r="D114">
-        <v>9.990630838333239</v>
+        <v>10.00780615707071</v>
       </c>
       <c r="E114">
-        <v>10.00417268795159</v>
+        <v>9.992169953019109</v>
       </c>
       <c r="F114">
-        <v>9.997523769590467</v>
+        <v>9.997125394655464</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>10.01578565349267</v>
+        <v>10.02880774411803</v>
       </c>
       <c r="C115">
-        <v>10.00900398233081</v>
+        <v>10.01996665586823</v>
       </c>
       <c r="D115">
-        <v>10.00816683029718</v>
+        <v>10.0254950336104</v>
       </c>
       <c r="E115">
-        <v>10.0218640106412</v>
+        <v>10.00916764559562</v>
       </c>
       <c r="F115">
-        <v>10.01527450469629</v>
+        <v>10.01476114153578</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>10.0334879894161</v>
+        <v>10.04589030936078</v>
       </c>
       <c r="C116">
-        <v>10.0258979135953</v>
+        <v>10.03745877605648</v>
       </c>
       <c r="D116">
-        <v>10.02559257091667</v>
+        <v>10.0430678277298</v>
       </c>
       <c r="E116">
-        <v>10.03944036577317</v>
+        <v>10.02606266179398</v>
       </c>
       <c r="F116">
-        <v>10.0329149980279</v>
+        <v>10.03228633580133</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>10.0510795263673</v>
+        <v>10.06286361580107</v>
       </c>
       <c r="C117">
-        <v>10.04268929653493</v>
+        <v>10.05483914397753</v>
       </c>
       <c r="D117">
-        <v>10.04290782942584</v>
+        <v>10.06052427109588</v>
       </c>
       <c r="E117">
-        <v>10.05690148339474</v>
+        <v>10.04285507152085</v>
       </c>
       <c r="F117">
-        <v>10.05044490457801</v>
+        <v>10.0497007334308</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>10.06855987933947</v>
+        <v>10.07972773190298</v>
       </c>
       <c r="C118">
-        <v>10.059378201111</v>
+        <v>10.07210751471074</v>
       </c>
       <c r="D118">
-        <v>10.06011238161423</v>
+        <v>10.07786411006124</v>
       </c>
       <c r="E118">
-        <v>10.07424710594718</v>
+        <v>10.05954494463846</v>
       </c>
       <c r="F118">
-        <v>10.06786388682351</v>
+        <v>10.06700409694562</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>10.0859286720329</v>
+        <v>10.09648272838588</v>
       </c>
       <c r="C119">
-        <v>10.0759646972357</v>
+        <v>10.08926365030966</v>
       </c>
       <c r="D119">
-        <v>10.07720600975395</v>
+        <v>10.09508710538427</v>
       </c>
       <c r="E119">
-        <v>10.09147698795775</v>
+        <v>10.07613235096116</v>
       </c>
       <c r="F119">
-        <v>10.08517161468877</v>
+        <v>10.08419619531888</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>10.10318553683591</v>
+        <v>10.11312867802047</v>
       </c>
       <c r="C120">
-        <v>10.09244885477224</v>
+        <v>10.10630732033849</v>
       </c>
       <c r="D120">
-        <v>10.09418850252622</v>
+        <v>10.11219303237969</v>
       </c>
       <c r="E120">
-        <v>10.10859089573532</v>
+        <v>10.09261736025515</v>
       </c>
       <c r="F120">
-        <v>10.10236776550578</v>
+        <v>10.10127680388089</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>10.12033011479979</v>
+        <v>10.12966565578206</v>
       </c>
       <c r="C121">
-        <v>10.10883074353486</v>
+        <v>10.12323830192696</v>
       </c>
       <c r="D121">
-        <v>10.11105965494779</v>
+        <v>10.12918167985297</v>
       </c>
       <c r="E121">
-        <v>10.12558860707015</v>
+        <v>10.10900004225403</v>
       </c>
       <c r="F121">
-        <v>10.11945202397131</v>
+        <v>10.11824570423687</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>10.13736205560865</v>
+        <v>10.14609373857703</v>
       </c>
       <c r="C122">
-        <v>10.12511043328893</v>
+        <v>10.14005637935558</v>
       </c>
       <c r="D122">
-        <v>10.12781926829691</v>
+        <v>10.14605285076603</v>
       </c>
       <c r="E122">
-        <v>10.14246991093811</v>
+        <v>10.12528046662588</v>
       </c>
       <c r="F122">
-        <v>10.13642408210154</v>
+        <v>10.13510268418425</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>10.1542810175436</v>
+        <v>10.1624130052773</v>
       </c>
       <c r="C123">
-        <v>10.14128799375096</v>
+        <v>10.15676134343899</v>
       </c>
       <c r="D123">
-        <v>10.14446715003923</v>
+        <v>10.16280636128854</v>
       </c>
       <c r="E123">
-        <v>10.15923460720973</v>
+        <v>10.14145870299693</v>
       </c>
       <c r="F123">
-        <v>10.15328363918391</v>
+        <v>10.15184753760322</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>10.1710866674424</v>
+        <v>10.17862353673163</v>
       </c>
       <c r="C124">
-        <v>10.15736349458873</v>
+        <v>10.17335299280522</v>
       </c>
       <c r="D124">
-        <v>10.16100311375354</v>
+        <v>10.17944204066389</v>
       </c>
       <c r="E124">
-        <v>10.17588250636445</v>
+        <v>10.15753482094645</v>
       </c>
       <c r="F124">
-        <v>10.17003040172678</v>
+        <v>10.16848006439516</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>10.18777868065418</v>
+        <v>10.19472541552482</v>
       </c>
       <c r="C125">
-        <v>10.17333700542131</v>
+        <v>10.18983113293736</v>
       </c>
       <c r="D125">
-        <v>10.1774269790575</v>
+        <v>10.19595973114357</v>
       </c>
       <c r="E125">
-        <v>10.19241342921012</v>
+        <v>10.17350889000636</v>
       </c>
       <c r="F125">
-        <v>10.18666408340664</v>
+        <v>10.18500007038335</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>10.20435674098973</v>
+        <v>10.21071872609184</v>
       </c>
       <c r="C126">
-        <v>10.18920859581911</v>
+        <v>10.20619557621256</v>
       </c>
       <c r="D126">
-        <v>10.19373857153328</v>
+        <v>10.2123592873883</v>
       </c>
       <c r="E126">
-        <v>10.20882720660804</v>
+        <v>10.18938097966678</v>
       </c>
       <c r="F126">
-        <v>10.20318440501332</v>
+        <v>10.20140736721484</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>10.22082054066778</v>
+        <v>10.22660355460431</v>
       </c>
       <c r="C127">
-        <v>10.20497833530399</v>
+        <v>10.2224461415803</v>
       </c>
       <c r="D127">
-        <v>10.20993772265349</v>
+        <v>10.22864057643442</v>
       </c>
       <c r="E127">
-        <v>10.22512367920366</v>
+        <v>10.2051511593645</v>
       </c>
       <c r="F127">
-        <v>10.21959109439318</v>
+        <v>10.21770177231208</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>10.23716978025701</v>
+        <v>10.24237998885146</v>
       </c>
       <c r="C128">
-        <v>10.22064629334927</v>
+        <v>10.2385826552993</v>
       </c>
       <c r="D128">
-        <v>10.226024269707</v>
+        <v>10.24480347725035</v>
       </c>
       <c r="E128">
-        <v>10.24130269716302</v>
+        <v>10.22081949849115</v>
       </c>
       <c r="F128">
-        <v>10.2358838863905</v>
+        <v>10.23388310874179</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>10.25340416861466</v>
+        <v>10.25804811835702</v>
       </c>
       <c r="C129">
-        <v>10.23621253937981</v>
+        <v>10.25460495024881</v>
       </c>
       <c r="D129">
-        <v>10.24199805572512</v>
+        <v>10.26084788050381</v>
       </c>
       <c r="E129">
-        <v>10.25736411991493</v>
+        <v>10.23638606639166</v>
       </c>
       <c r="F129">
-        <v>10.25206252278719</v>
+        <v>10.24995120515579</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>10.26952342282138</v>
+        <v>10.2736080341366</v>
       </c>
       <c r="C130">
-        <v>10.25167714277208</v>
+        <v>10.27051286580403</v>
       </c>
       <c r="D130">
-        <v>10.25785892940791</v>
+        <v>10.27677368827391</v>
       </c>
       <c r="E130">
-        <v>10.2733078158991</v>
+        <v>10.25185093236409</v>
       </c>
       <c r="F130">
-        <v>10.26812675224083</v>
+        <v>10.26590589572695</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>10.28552726811288</v>
+        <v>10.2890598287721</v>
       </c>
       <c r="C131">
-        <v>10.2670401728542</v>
+        <v>10.28630624792875</v>
       </c>
       <c r="D131">
-        <v>10.27360674505083</v>
+        <v>10.29258081370559</v>
       </c>
       <c r="E131">
-        <v>10.28913366232003</v>
+        <v>10.26721416565593</v>
       </c>
       <c r="F131">
-        <v>10.28407633022133</v>
+        <v>10.28174702001533</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>10.30141543780858</v>
+        <v>10.30440359638623</v>
       </c>
       <c r="C132">
-        <v>10.282301698906</v>
+        <v>10.30198494933616</v>
       </c>
       <c r="D132">
-        <v>10.28924136247175</v>
+        <v>10.30826918079411</v>
       </c>
       <c r="E132">
-        <v>10.30484154490683</v>
+        <v>10.28247583547189</v>
       </c>
       <c r="F132">
-        <v>10.29991101894618</v>
+        <v>10.29747442294582</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>10.31718767323717</v>
+        <v>10.31963943248218</v>
       </c>
       <c r="C133">
-        <v>10.29746179015911</v>
+        <v>10.31754882912329</v>
       </c>
       <c r="D133">
-        <v>10.30476264693828</v>
+        <v>10.32383872402563</v>
       </c>
       <c r="E133">
-        <v>10.32043135767878</v>
+        <v>10.29763601096854</v>
       </c>
       <c r="F133">
-        <v>10.3156305873146</v>
+        <v>10.31308795470967</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>10.33284372365978</v>
+        <v>10.334767434028</v>
       </c>
       <c r="C134">
-        <v>10.31252051579697</v>
+        <v>10.33299775248735</v>
       </c>
       <c r="D134">
-        <v>10.32017046909545</v>
+        <v>10.3392893881203</v>
       </c>
       <c r="E134">
-        <v>10.33590300271675</v>
+        <v>10.31269476125537</v>
       </c>
       <c r="F134">
-        <v>10.33123481084038</v>
+        <v>10.32858747062027</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>10.3483833461904</v>
+        <v>10.34978769935275</v>
       </c>
       <c r="C135">
-        <v>10.32747794495494</v>
+        <v>10.3483315911663</v>
       </c>
       <c r="D135">
-        <v>10.33546470489396</v>
+        <v>10.35462112774704</v>
       </c>
       <c r="E135">
-        <v>10.35125638994034</v>
+        <v>10.32765215539492</v>
       </c>
       <c r="F135">
-        <v>10.34672347158382</v>
+        <v>10.34397283108047</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>10.36380630571413</v>
+        <v>10.36470032808753</v>
       </c>
       <c r="C136">
-        <v>10.34233414672029</v>
+        <v>10.36355022309291</v>
       </c>
       <c r="D136">
-        <v>10.35064523551876</v>
+        <v>10.3698339072511</v>
       </c>
       <c r="E136">
-        <v>10.36649143689062</v>
+        <v>10.34250826239995</v>
       </c>
       <c r="F136">
-        <v>10.36209635808272</v>
+        <v>10.35924390158023</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>10.37911237480334</v>
+        <v>10.37950542122744</v>
       </c>
       <c r="C137">
-        <v>10.35708919013234</v>
+        <v>10.37865353229374</v>
       </c>
       <c r="D137">
-        <v>10.36571194731824</v>
+        <v>10.3849277003169</v>
       </c>
       <c r="E137">
-        <v>10.38160806851866</v>
+        <v>10.35726315123937</v>
       </c>
       <c r="F137">
-        <v>10.37735326528245</v>
+        <v>10.37440055261292</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>10.39430133363174</v>
+        <v>10.39420308096557</v>
       </c>
       <c r="C138">
-        <v>10.37174314418246</v>
+        <v>10.39364140865688</v>
       </c>
       <c r="D138">
-        <v>10.38066473173395</v>
+        <v>10.39990248983976</v>
       </c>
       <c r="E138">
-        <v>10.39660621697921</v>
+        <v>10.37191689083424</v>
       </c>
       <c r="F138">
-        <v>10.39249399446545</v>
+        <v>10.38944265934205</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>10.40937296988683</v>
+        <v>10.40879341074723</v>
       </c>
       <c r="C139">
-        <v>10.38629607781412</v>
+        <v>10.40851374827463</v>
       </c>
       <c r="D139">
-        <v>10.39550348523078</v>
+        <v>10.41475826746371</v>
       </c>
       <c r="E139">
-        <v>10.41148582143001</v>
+        <v>10.38646955005843</v>
       </c>
       <c r="F139">
-        <v>10.40751835317985</v>
+        <v>10.40437010175906</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>10.42432707868058</v>
+        <v>10.42327651523862</v>
       </c>
       <c r="C140">
-        <v>10.40074805992299</v>
+        <v>10.42327045305272</v>
       </c>
       <c r="D140">
-        <v>10.4102281092278</v>
+        <v>10.42949503346966</v>
       </c>
       <c r="E140">
-        <v>10.42624682783664</v>
+        <v>10.40092119773879</v>
       </c>
       <c r="F140">
-        <v>10.42242615516769</v>
+        <v>10.41918276464576</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>10.43916346245879</v>
+        <v>10.43765250022209</v>
       </c>
       <c r="C141">
-        <v>10.41509915935696</v>
+        <v>10.43791143064235</v>
       </c>
       <c r="D141">
-        <v>10.42483851002973</v>
+        <v>10.44411279649925</v>
       </c>
       <c r="E141">
-        <v>10.44088918878236</v>
+        <v>10.41527190265718</v>
       </c>
       <c r="F141">
-        <v>10.43721722029253</v>
+        <v>10.4338805375707</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>10.45388193090897</v>
+        <v>10.45192147265645</v>
       </c>
       <c r="C142">
-        <v>10.42934944491624</v>
+        <v>10.45243659436713</v>
       </c>
       <c r="D142">
-        <v>10.43933459875894</v>
+        <v>10.4586115731833</v>
       </c>
       <c r="E142">
-        <v>10.455412863283</v>
+        <v>10.42952173354636</v>
       </c>
       <c r="F142">
-        <v>10.45189137446668</v>
+        <v>10.44846331435765</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>10.46848230086718</v>
+        <v>10.46608354058456</v>
       </c>
       <c r="C143">
-        <v>10.44349898535335</v>
+        <v>10.46684586329142</v>
       </c>
       <c r="D143">
-        <v>10.45371629128819</v>
+        <v>10.47299138811806</v>
       </c>
       <c r="E143">
-        <v>10.46981781660698</v>
+        <v>10.44367075909276</v>
       </c>
       <c r="F143">
-        <v>10.46644844957806</v>
+        <v>10.46293099340894</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>10.48296439622376</v>
+        <v>10.48013881311108</v>
       </c>
       <c r="C144">
-        <v>10.45754784937322</v>
+        <v>10.48113916199349</v>
       </c>
       <c r="D144">
-        <v>10.46798350817395</v>
+        <v>10.48725227335438</v>
       </c>
       <c r="E144">
-        <v>10.48410402010037</v>
+        <v>10.45771904793607</v>
       </c>
       <c r="F144">
-        <v>10.48088828341675</v>
+        <v>10.47728347761135</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>10.49732804782815</v>
+        <v>10.49408740043137</v>
       </c>
       <c r="C145">
-        <v>10.47149610563323</v>
+        <v>10.4953164204494</v>
       </c>
       <c r="D145">
-        <v>10.48213617459046</v>
+        <v>10.50139426838368</v>
       </c>
       <c r="E145">
-        <v>10.49827145101647</v>
+        <v>10.47166666866916</v>
       </c>
       <c r="F145">
-        <v>10.49521071960134</v>
+        <v>10.49152067442711</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>10.51157309339296</v>
+        <v>10.50792941371581</v>
       </c>
       <c r="C146">
-        <v>10.48534382274329</v>
+        <v>10.50937757405981</v>
       </c>
       <c r="D146">
-        <v>10.49617422026446</v>
+        <v>10.51541741981672</v>
       </c>
       <c r="E146">
-        <v>10.51232009235036</v>
+        <v>10.48551368984131</v>
       </c>
       <c r="F146">
-        <v>10.50941560750512</v>
+        <v>10.50564249523336</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>10.52569937739739</v>
+        <v>10.52166496515152</v>
       </c>
       <c r="C147">
-        <v>10.49909106926586</v>
+        <v>10.52332256353685</v>
       </c>
       <c r="D147">
-        <v>10.51009757941057</v>
+        <v>10.52932178109749</v>
       </c>
       <c r="E147">
-        <v>10.52624993267786</v>
+        <v>10.49926017995177</v>
       </c>
       <c r="F147">
-        <v>10.52350280218214</v>
+        <v>10.51964885573477</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>10.53970675099</v>
+        <v>10.53529416790925</v>
       </c>
       <c r="C148">
-        <v>10.512737913716</v>
+        <v>10.53715133479453</v>
       </c>
       <c r="D148">
-        <v>10.52390619066753</v>
+        <v>10.54310741248658</v>
       </c>
       <c r="E148">
-        <v>10.54006096599906</v>
+        <v>10.51290620745399</v>
       </c>
       <c r="F148">
-        <v>10.53747216429321</v>
+        <v>10.53353967581592</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>10.55359507189124</v>
+        <v>10.54881713607454</v>
       </c>
       <c r="C149">
-        <v>10.52628442456147</v>
+        <v>10.55086383884184</v>
       </c>
       <c r="D149">
-        <v>10.53759999703496</v>
+        <v>10.55677438056007</v>
       </c>
       <c r="E149">
-        <v>10.55375319158612</v>
+        <v>10.52645184075512</v>
       </c>
       <c r="F149">
-        <v>10.55132356003194</v>
+        <v>10.54731487967186</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>10.56736420429541</v>
+        <v>10.56223398472752</v>
       </c>
       <c r="C150">
-        <v>10.53973067022275</v>
+        <v>10.5644600317741</v>
       </c>
       <c r="D150">
-        <v>10.55117894581105</v>
+        <v>10.57032275828928</v>
       </c>
       <c r="E150">
-        <v>10.56732661383548</v>
+        <v>10.53989714821584</v>
       </c>
       <c r="F150">
-        <v>10.5650568610508</v>
+        <v>10.56097439518251</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>10.58101401877261</v>
+        <v>10.57554482979218</v>
       </c>
       <c r="C151">
-        <v>10.55307671907308</v>
+        <v>10.57793987463665</v>
       </c>
       <c r="D151">
-        <v>10.56464298853087</v>
+        <v>10.5837526246498</v>
       </c>
       <c r="E151">
-        <v>10.58078124212403</v>
+        <v>10.55324219815117</v>
       </c>
       <c r="F151">
-        <v>10.57867194438729</v>
+        <v>10.57451815428039</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>10.59454439217041</v>
+        <v>10.5887497880581</v>
       </c>
       <c r="C152">
-        <v>10.56632263943855</v>
+        <v>10.59130333335874</v>
       </c>
       <c r="D152">
-        <v>10.57799208090547</v>
+        <v>10.59706406446297</v>
       </c>
       <c r="E152">
-        <v>10.59411709066949</v>
+        <v>10.56648705882898</v>
       </c>
       <c r="F152">
-        <v>10.59216869239027</v>
+        <v>10.58794609279633</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>10.60795520751553</v>
+        <v>10.60184897715452</v>
       </c>
       <c r="C153">
-        <v>10.57946849959812</v>
+        <v>10.60455037867363</v>
       </c>
       <c r="D153">
-        <v>10.59122618276174</v>
+        <v>10.61025716834404</v>
       </c>
       <c r="E153">
-        <v>10.60733417839463</v>
+        <v>10.57963179847099</v>
       </c>
       <c r="F153">
-        <v>10.60554699264639</v>
+        <v>10.60125815061132</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>10.62124635391559</v>
+        <v>10.6148425157222</v>
       </c>
       <c r="C154">
-        <v>10.59251436778369</v>
+        <v>10.61768098602048</v>
       </c>
       <c r="D154">
-        <v>10.60434525798305</v>
+        <v>10.62333203225358</v>
       </c>
       <c r="E154">
-        <v>10.62043252879531</v>
+        <v>10.59267648525271</v>
       </c>
       <c r="F154">
-        <v>10.6188067379069</v>
+        <v>10.61445427106847</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>10.63441772646093</v>
+        <v>10.62773052303182</v>
       </c>
       <c r="C155">
-        <v>10.60546031218017</v>
+        <v>10.63069513547434</v>
       </c>
       <c r="D155">
-        <v>10.61734927445062</v>
+        <v>10.63628875763993</v>
       </c>
       <c r="E155">
-        <v>10.63341216981237</v>
+        <v>10.60562118730344</v>
       </c>
       <c r="F155">
-        <v>10.63194782601459</v>
+        <v>10.62753440130125</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>10.64746922612668</v>
+        <v>10.64051311914938</v>
       </c>
       <c r="C156">
-        <v>10.61830640092547</v>
+        <v>10.64359281169579</v>
       </c>
       <c r="D156">
-        <v>10.63023820398569</v>
+        <v>10.64912745097747</v>
       </c>
       <c r="E156">
-        <v>10.64627313370697</v>
+        <v>10.61846597270528</v>
       </c>
       <c r="F156">
-        <v>10.64497015983106</v>
+        <v>10.64049849207911</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>10.66040075967511</v>
+        <v>10.65319042490424</v>
       </c>
       <c r="C157">
-        <v>10.63105270211061</v>
+        <v>10.65637400380907</v>
       </c>
       <c r="D157">
-        <v>10.64301202229242</v>
+        <v>10.66184822376261</v>
       </c>
       <c r="E157">
-        <v>10.65901545693969</v>
+        <v>10.63121090949519</v>
       </c>
       <c r="F157">
-        <v>10.65787364716438</v>
+        <v>10.65334649799948</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>10.67321223955826</v>
+        <v>10.66576256219983</v>
       </c>
       <c r="C158">
-        <v>10.64369928377978</v>
+        <v>10.66903870531206</v>
       </c>
       <c r="D158">
-        <v>10.65567070890164</v>
+        <v>10.67445119238176</v>
       </c>
       <c r="E158">
-        <v>10.67163918005277</v>
+        <v>10.64385606566379</v>
       </c>
       <c r="F158">
-        <v>10.67065820069705</v>
+        <v>10.66607837687326</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>10.68590358382099</v>
+        <v>10.67822965337565</v>
       </c>
       <c r="C159">
-        <v>10.65624621393032</v>
+        <v>10.68158691402176</v>
       </c>
       <c r="D159">
-        <v>10.66821424711532</v>
+        <v>10.68693647776334</v>
       </c>
       <c r="E159">
-        <v>10.68414434755603</v>
+        <v>10.65640150915549</v>
       </c>
       <c r="F159">
-        <v>10.68332373791436</v>
+        <v>10.67869409006605</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>10.69847471600461</v>
+        <v>10.69059182152045</v>
       </c>
       <c r="C160">
-        <v>10.66869356051285</v>
+        <v>10.69401863208139</v>
       </c>
       <c r="D160">
-        <v>10.68064262395184</v>
+        <v>10.69930420552044</v>
       </c>
       <c r="E160">
-        <v>10.69653100781572</v>
+        <v>10.66884730786862</v>
       </c>
       <c r="F160">
-        <v>10.69587018103325</v>
+        <v>10.69119360233244</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>10.710925565051</v>
+        <v>10.70284919044355</v>
       </c>
       <c r="C161">
-        <v>10.68104139143127</v>
+        <v>10.70633386569613</v>
       </c>
       <c r="D161">
-        <v>10.69295583009201</v>
+        <v>10.71155450548818</v>
       </c>
       <c r="E161">
-        <v>10.70879921294676</v>
+        <v>10.68119352965487</v>
       </c>
       <c r="F161">
-        <v>10.70829745693151</v>
+        <v>10.70357688207847</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>10.72325606520725</v>
+        <v>10.71500188490505</v>
       </c>
       <c r="C162">
-        <v>10.69328977454282</v>
+        <v>10.71853262517695</v>
       </c>
       <c r="D162">
-        <v>10.70515385982594</v>
+        <v>10.7236875118147</v>
       </c>
       <c r="E162">
-        <v>10.72094901870793</v>
+        <v>10.69344024232046</v>
       </c>
       <c r="F162">
-        <v>10.72060549707757</v>
+        <v>10.71584390065562</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>10.73546615593103</v>
+        <v>10.72705003011024</v>
       </c>
       <c r="C163">
-        <v>10.70543877765817</v>
+        <v>10.73061492485886</v>
       </c>
       <c r="D163">
-        <v>10.71723671100061</v>
+        <v>10.73570336276655</v>
       </c>
       <c r="E163">
-        <v>10.73298048440005</v>
+        <v>10.70558751362556</v>
       </c>
       <c r="F163">
-        <v>10.73279423746067</v>
+        <v>10.72799463276091</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>10.74755578179654</v>
+        <v>10.73899375195324</v>
       </c>
       <c r="C164">
-        <v>10.7174884685414</v>
+        <v>10.74258078308355</v>
       </c>
       <c r="D164">
-        <v>10.72920438496826</v>
+        <v>10.74760220049209</v>
       </c>
       <c r="E164">
-        <v>10.74489367276715</v>
+        <v>10.71763541128424</v>
       </c>
       <c r="F164">
-        <v>10.74486361852164</v>
+        <v>10.74002905626486</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>10.75952489240131</v>
+        <v>10.75083317699812</v>
       </c>
       <c r="C165">
-        <v>10.72943891491011</v>
+        <v>10.75443022193917</v>
       </c>
       <c r="D165">
-        <v>10.74105688653555</v>
+        <v>10.7593841711173</v>
       </c>
       <c r="E165">
-        <v>10.75668864990029</v>
+        <v>10.72958400296468</v>
       </c>
       <c r="F165">
-        <v>10.75681358508413</v>
+        <v>10.75194715244555</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>10.77137344227368</v>
+        <v>10.76256843260376</v>
       </c>
       <c r="C166">
-        <v>10.74129018443545</v>
+        <v>10.76616326732497</v>
       </c>
       <c r="D166">
-        <v>10.7527942239135</v>
+        <v>10.77104942435262</v>
       </c>
       <c r="E166">
-        <v>10.76836548514431</v>
+        <v>10.7414333562896</v>
       </c>
       <c r="F166">
-        <v>10.7686440862862</v>
+        <v>10.76374890538894</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>10.78310139078117</v>
+        <v>10.77419964662104</v>
       </c>
       <c r="C167">
-        <v>10.75304234474214</v>
+        <v>10.77777994891202</v>
       </c>
       <c r="D167">
-        <v>10.7644164086682</v>
+        <v>10.78259811369996</v>
       </c>
       <c r="E167">
-        <v>10.77992425100705</v>
+        <v>10.7531835388354</v>
       </c>
       <c r="F167">
-        <v>10.78035507551322</v>
+        <v>10.77543430226514</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>10.79470870203972</v>
+        <v>10.785726947529</v>
       </c>
       <c r="C168">
-        <v>10.76469546340859</v>
+        <v>10.78928030001604</v>
       </c>
       <c r="D168">
-        <v>10.77592345567227</v>
+        <v>10.79403039607558</v>
       </c>
       <c r="E168">
-        <v>10.79136502307133</v>
+        <v>10.76483461813274</v>
       </c>
       <c r="F168">
-        <v>10.79194651033074</v>
+        <v>10.78700333323167</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>10.80619534482364</v>
+        <v>10.79715046442166</v>
       </c>
       <c r="C169">
-        <v>10.77624960796686</v>
+        <v>10.80066435744117</v>
       </c>
       <c r="D169">
-        <v>10.78731538305711</v>
+        <v>10.80534643163617</v>
       </c>
       <c r="E169">
-        <v>10.80268787990927</v>
+        <v>10.77638666166657</v>
       </c>
       <c r="F169">
-        <v>10.80341835241798</v>
+        <v>10.79845599159423</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>10.81756129247665</v>
+        <v>10.80847032704471</v>
       </c>
       <c r="C170">
-        <v>10.7877048459028</v>
+        <v>10.81193216150661</v>
       </c>
       <c r="D170">
-        <v>10.79859221216592</v>
+        <v>10.81654638377072</v>
       </c>
       <c r="E170">
-        <v>10.81389290299919</v>
+        <v>10.78783973687607</v>
       </c>
       <c r="F170">
-        <v>10.81477056750217</v>
+        <v>10.80979227336211</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>10.82880652282382</v>
+        <v>10.81968666566687</v>
       </c>
       <c r="C171">
-        <v>10.79906124465601</v>
+        <v>10.82308375609047</v>
       </c>
       <c r="D171">
-        <v>10.80975396750744</v>
+        <v>10.8276304197633</v>
       </c>
       <c r="E171">
-        <v>10.82498017664478</v>
+        <v>10.79919391115538</v>
       </c>
       <c r="F171">
-        <v>10.82600312529317</v>
+        <v>10.82101217738078</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>10.83993101808444</v>
+        <v>10.83079961112491</v>
       </c>
       <c r="C172">
-        <v>10.81031887161997</v>
+        <v>10.83411918830651</v>
       </c>
       <c r="D172">
-        <v>10.82080067671052</v>
+        <v>10.83859870903471</v>
       </c>
       <c r="E172">
-        <v>10.83594978789663</v>
+        <v>10.81044925185242</v>
       </c>
       <c r="F172">
-        <v>10.83711599941921</v>
+        <v>10.83211570530317</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>10.85093476478592</v>
+        <v>10.84180929481146</v>
       </c>
       <c r="C173">
-        <v>10.82147779414204</v>
+        <v>10.84503850856114</v>
       </c>
       <c r="D173">
-        <v>10.83173237047938</v>
+        <v>10.84945142414083</v>
       </c>
       <c r="E173">
-        <v>10.84680182647594</v>
+        <v>10.82160582626957</v>
       </c>
       <c r="F173">
-        <v>10.84810916736302</v>
+        <v>10.84310286169819</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>10.86181775367868</v>
+        <v>10.85271584879299</v>
       </c>
       <c r="C174">
-        <v>10.8325380795235</v>
+        <v>10.85584177050397</v>
       </c>
       <c r="D174">
-        <v>10.84254908254963</v>
+        <v>10.86018874075186</v>
       </c>
       <c r="E174">
-        <v>10.85753638470043</v>
+        <v>10.83266370166375</v>
       </c>
       <c r="F174">
-        <v>10.85898261039856</v>
+        <v>10.85397365372127</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>10.87257997965212</v>
+        <v>10.86351940556193</v>
       </c>
       <c r="C175">
-        <v>10.84349979501963</v>
+        <v>10.86652903107799</v>
       </c>
       <c r="D175">
-        <v>10.85325084964504</v>
+        <v>10.87081083801078</v>
       </c>
       <c r="E175">
-        <v>10.86815355741237</v>
+        <v>10.84362294524639</v>
       </c>
       <c r="F175">
-        <v>10.86973631352866</v>
+        <v>10.86472809113969</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>10.88322144165154</v>
+        <v>10.87422009814389</v>
       </c>
       <c r="C176">
-        <v>10.85436300783977</v>
+        <v>10.87710035014004</v>
       </c>
       <c r="D176">
-        <v>10.86383771143509</v>
+        <v>10.88131789661477</v>
       </c>
       <c r="E176">
-        <v>10.87865344190863</v>
+        <v>10.85448362418354</v>
       </c>
       <c r="F176">
-        <v>10.88037026542294</v>
+        <v>10.87536618635638</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>10.89374214259621</v>
+        <v>10.88481806009181</v>
       </c>
       <c r="C177">
-        <v>10.86512778514731</v>
+        <v>10.88755579062097</v>
       </c>
       <c r="D177">
-        <v>10.87430971049321</v>
+        <v>10.89171010020105</v>
       </c>
       <c r="E177">
-        <v>10.8890361378727</v>
+        <v>10.86524580559577</v>
       </c>
       <c r="F177">
-        <v>10.89088445835683</v>
+        <v>10.88588795448561</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>10.90414208929854</v>
+        <v>10.89531342558664</v>
       </c>
       <c r="C178">
-        <v>10.87579419405978</v>
+        <v>10.89789541847513</v>
       </c>
       <c r="D178">
-        <v>10.88466689225573</v>
+        <v>10.90198763555337</v>
       </c>
       <c r="E178">
-        <v>10.8993017473087</v>
+        <v>10.87590955655829</v>
       </c>
       <c r="F178">
-        <v>10.90127888815113</v>
+        <v>10.89629341310544</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>10.91442129238424</v>
+        <v>10.90570632921327</v>
       </c>
       <c r="C179">
-        <v>10.88636230164891</v>
+        <v>10.90811930260845</v>
       </c>
       <c r="D179">
-        <v>10.89490930498165</v>
+        <v>10.91215069181605</v>
       </c>
       <c r="E179">
-        <v>10.90945037447723</v>
+        <v>10.88647494410098</v>
       </c>
       <c r="F179">
-        <v>10.91155355411218</v>
+        <v>10.9065825821978</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>10.92457976621365</v>
+        <v>10.91599690605637</v>
       </c>
       <c r="C180">
-        <v>10.89683217494063</v>
+        <v>10.91822751463955</v>
       </c>
       <c r="D180">
-        <v>10.90503699971304</v>
+        <v>10.92219946007736</v>
       </c>
       <c r="E180">
-        <v>10.919482125833</v>
+        <v>10.89694203520844</v>
       </c>
       <c r="F180">
-        <v>10.92170845897286</v>
+        <v>10.9167554842205</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>10.93461752880417</v>
+        <v>10.92618529169799</v>
       </c>
       <c r="C181">
-        <v>10.90720388091516</v>
+        <v>10.92822012900057</v>
       </c>
       <c r="D181">
-        <v>10.9150500302362</v>
+        <v>10.93213413394219</v>
       </c>
       <c r="E181">
-        <v>10.92939710996433</v>
+        <v>10.90731089681978</v>
       </c>
       <c r="F181">
-        <v>10.93174360883406</v>
+        <v>10.92681214415087</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>10.94453460175382</v>
+        <v>10.9362716222829</v>
       </c>
       <c r="C182">
-        <v>10.91747748650704</v>
+        <v>10.9380972229743</v>
       </c>
       <c r="D182">
-        <v>10.92494845304354</v>
+        <v>10.94195490995903</v>
       </c>
       <c r="E182">
-        <v>10.93919543753425</v>
+        <v>10.91758159582913</v>
       </c>
       <c r="F182">
-        <v>10.94165901310716</v>
+        <v>10.93675258931357</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>10.95433101016585</v>
+        <v>10.94625603436109</v>
       </c>
       <c r="C183">
-        <v>10.92765305860517</v>
+        <v>10.94785887641868</v>
       </c>
       <c r="D183">
-        <v>10.93473232729613</v>
+        <v>10.95166198622208</v>
       </c>
       <c r="E183">
-        <v>10.9488772212234</v>
+        <v>10.92775419908541</v>
       </c>
       <c r="F183">
-        <v>10.95145468445713</v>
+        <v>10.94657684924521</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>10.96400678257459</v>
+        <v>10.95613866495108</v>
       </c>
       <c r="C184">
-        <v>10.93773066405287</v>
+        <v>10.95750517175931</v>
       </c>
       <c r="D184">
-        <v>10.94440171478702</v>
+        <v>10.96125556313462</v>
       </c>
       <c r="E184">
-        <v>10.9584425756744</v>
+        <v>10.93782877339239</v>
       </c>
       <c r="F184">
-        <v>10.96113063874617</v>
+        <v>10.9562849558082</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>10.97356195087232</v>
+        <v>10.96591965153803</v>
       </c>
       <c r="C185">
-        <v>10.94771036964794</v>
+        <v>10.96703619400301</v>
       </c>
       <c r="D185">
-        <v>10.95395667990517</v>
+        <v>10.9707358432786</v>
       </c>
       <c r="E185">
-        <v>10.96789161743796</v>
+        <v>10.94780538550871</v>
       </c>
       <c r="F185">
-        <v>10.97068689497825</v>
+        <v>10.96587694320162</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>10.98299655023731</v>
+        <v>10.97559913212672</v>
       </c>
       <c r="C186">
-        <v>10.95759224214266</v>
+        <v>10.97645203103084</v>
       </c>
       <c r="D186">
-        <v>10.96339728960016</v>
+        <v>10.98010303160485</v>
       </c>
       <c r="E186">
-        <v>10.97722446492037</v>
+        <v>10.95768410214786</v>
       </c>
       <c r="F186">
-        <v>10.98012347524419</v>
+        <v>10.97535284785894</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>10.99231061906299</v>
+        <v>10.98517724511495</v>
       </c>
       <c r="C187">
-        <v>10.96737634824388</v>
+        <v>10.98575277265163</v>
       </c>
       <c r="D187">
-        <v>10.97272361334755</v>
+        <v>10.98935733461235</v>
       </c>
       <c r="E187">
-        <v>10.98644123833263</v>
+        <v>10.96746498997839</v>
       </c>
       <c r="F187">
-        <v>10.9894404046676</v>
+        <v>10.98471270825345</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>11.00150419888832</v>
+        <v>10.99465412934219</v>
       </c>
       <c r="C188">
-        <v>10.97706275461307</v>
+        <v>10.99493851119301</v>
       </c>
       <c r="D188">
-        <v>10.98193572311488</v>
+        <v>10.99849896086259</v>
       </c>
       <c r="E188">
-        <v>10.99554205964085</v>
+        <v>10.97714811562387</v>
       </c>
       <c r="F188">
-        <v>10.99863771135152</v>
+        <v>10.99395656504027</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>11.01057733432913</v>
+        <v>11.00402992408867</v>
       </c>
       <c r="C189">
-        <v>10.98665152786631</v>
+        <v>11.00400934127027</v>
       </c>
       <c r="D189">
-        <v>10.99103369332845</v>
+        <v>11.00752812100831</v>
       </c>
       <c r="E189">
-        <v>11.00452705251823</v>
+        <v>10.98673354566291</v>
       </c>
       <c r="F189">
-        <v>11.00771542632573</v>
+        <v>11.00308446104107</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>11.01953007301072</v>
+        <v>11.01330476912857</v>
       </c>
       <c r="C190">
-        <v>10.99614273457442</v>
+        <v>11.01296535972097</v>
       </c>
       <c r="D190">
-        <v>11.00001760084069</v>
+        <v>11.01644502760755</v>
       </c>
       <c r="E190">
-        <v>11.0133963422983</v>
+        <v>10.99622134662919</v>
       </c>
       <c r="F190">
-        <v>11.0166735834947</v>
+        <v>11.01209644119955</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>11.02836246550154</v>
+        <v>11.02247880460933</v>
       </c>
       <c r="C191">
-        <v>11.00553644126292</v>
+        <v>11.02180666554275</v>
       </c>
       <c r="D191">
-        <v>11.00888752489823</v>
+        <v>11.02524989473396</v>
       </c>
       <c r="E191">
-        <v>11.02215005592951</v>
+        <v>11.00561158501162</v>
       </c>
       <c r="F191">
-        <v>11.02551221958632</v>
+        <v>11.02099255234348</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>11.03707456524797</v>
+        <v>11.03155217109773</v>
       </c>
       <c r="C192">
-        <v>11.01483271441216</v>
+        <v>11.03053336168202</v>
       </c>
       <c r="D192">
-        <v>11.01764354711066</v>
+        <v>11.03394293829918</v>
       </c>
       <c r="E192">
-        <v>11.03078832193115</v>
+        <v>11.01490432725423</v>
       </c>
       <c r="F192">
-        <v>11.03423137410122</v>
+        <v>11.02977284334526</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>11.04566642851021</v>
+        <v>11.0405250095811</v>
       </c>
       <c r="C193">
-        <v>11.02403162045729</v>
+        <v>11.03914555070955</v>
       </c>
       <c r="D193">
-        <v>11.02628575141986</v>
+        <v>11.04252437635472</v>
       </c>
       <c r="E193">
-        <v>11.03931127035043</v>
+        <v>11.02409963975622</v>
       </c>
       <c r="F193">
-        <v>11.04283108926313</v>
+        <v>11.03843736508762</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>11.05413811429932</v>
+        <v>11.04939746151772</v>
       </c>
       <c r="C194">
-        <v>11.03313322578836</v>
+        <v>11.04764333812646</v>
       </c>
       <c r="D194">
-        <v>11.03481422407014</v>
+        <v>11.05099442828891</v>
       </c>
       <c r="E194">
-        <v>11.04771903272095</v>
+        <v>11.03319758887208</v>
       </c>
       <c r="F194">
-        <v>11.0513114099695</v>
+        <v>11.04698617046604</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>11.06248968431529</v>
+        <v>11.05816966872413</v>
       </c>
       <c r="C195">
-        <v>11.04213759675033</v>
+        <v>11.05602683139434</v>
       </c>
       <c r="D195">
-        <v>11.04322905357887</v>
+        <v>11.05935331512589</v>
       </c>
       <c r="E195">
-        <v>11.05601174202214</v>
+        <v>11.04219824091159</v>
       </c>
       <c r="F195">
-        <v>11.05967238374309</v>
+        <v>11.05541931411513</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>11.07072120288627</v>
+        <v>11.06684177341783</v>
       </c>
       <c r="C196">
-        <v>11.05104479964316</v>
+        <v>11.06429613987299</v>
       </c>
       <c r="D196">
-        <v>11.05153033070787</v>
+        <v>11.06760125957071</v>
       </c>
       <c r="E196">
-        <v>11.06418953264006</v>
+        <v>11.05110166214</v>
       </c>
       <c r="F196">
-        <v>11.06791406068414</v>
+        <v>11.06373685258537</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>11.07883273690885</v>
+        <v>11.07541391822012</v>
       </c>
       <c r="C197">
-        <v>11.05985490072179</v>
+        <v>11.07245137475835</v>
       </c>
       <c r="D197">
-        <v>11.0597181484354</v>
+        <v>11.07573848629706</v>
       </c>
       <c r="E197">
-        <v>11.07225254032916</v>
+        <v>11.05990791877783</v>
       </c>
       <c r="F197">
-        <v>11.07603649342313</v>
+        <v>11.07193884429337</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>11.08682435578939</v>
+        <v>11.08388624620069</v>
       </c>
       <c r="C198">
-        <v>11.06856796619627</v>
+        <v>11.0804926518764</v>
       </c>
       <c r="D198">
-        <v>11.06779260192878</v>
+        <v>11.08376522106058</v>
       </c>
       <c r="E198">
-        <v>11.08020090217535</v>
+        <v>11.068617077001</v>
       </c>
       <c r="F198">
-        <v>11.08403973707458</v>
+        <v>11.08002534956356</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>11.09469613138647</v>
+        <v>11.09225890077812</v>
       </c>
       <c r="C199">
-        <v>11.07718406223172</v>
+        <v>11.08842008534842</v>
       </c>
       <c r="D199">
-        <v>11.07575378851768</v>
+        <v>11.0916816912791</v>
       </c>
       <c r="E199">
-        <v>11.08803475655985</v>
+        <v>11.07722920294094</v>
       </c>
       <c r="F199">
-        <v>11.09192384919114</v>
+        <v>11.08799643032478</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>11.10244813795434</v>
+        <v>11.10053202575677</v>
       </c>
       <c r="C200">
-        <v>11.08570325494843</v>
+        <v>11.0962337920359</v>
       </c>
       <c r="D200">
-        <v>11.08360180766802</v>
+        <v>11.09948812598274</v>
       </c>
       <c r="E200">
-        <v>11.0957542431241</v>
+        <v>11.08574436268457</v>
       </c>
       <c r="F200">
-        <v>11.09968888971856</v>
+        <v>11.09585215030125</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>11.1100804520875</v>
+        <v>11.10870576533074</v>
       </c>
       <c r="C201">
-        <v>11.09412561042191</v>
+        <v>11.10393389067255</v>
       </c>
       <c r="D201">
-        <v>11.09133676095647</v>
+        <v>11.10718475579955</v>
       </c>
       <c r="E201">
-        <v>11.10335950273592</v>
+        <v>11.09416262227439</v>
       </c>
       <c r="F201">
-        <v>11.10733492095127</v>
+        <v>11.10359257494921</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>11.11759315266619</v>
+        <v>11.11678026412401</v>
       </c>
       <c r="C202">
-        <v>11.10245119468287</v>
+        <v>11.11152050164235</v>
       </c>
       <c r="D202">
-        <v>11.09895875204568</v>
+        <v>11.11477181253938</v>
       </c>
       <c r="E202">
-        <v>11.11085067745662</v>
+        <v>11.10248404770845</v>
       </c>
       <c r="F202">
-        <v>11.11486200748842</v>
+        <v>11.11121777153029</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>11.12498632080299</v>
+        <v>11.12475566710205</v>
       </c>
       <c r="C203">
-        <v>11.11068007371737</v>
+        <v>11.1189937469254</v>
       </c>
       <c r="D203">
-        <v>11.10646788665998</v>
+        <v>11.122249529516</v>
       </c>
       <c r="E203">
-        <v>11.11822791050897</v>
+        <v>11.11070870494044</v>
       </c>
       <c r="F203">
-        <v>11.1222702161911</v>
+        <v>11.11872780878853</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>11.13226003979045</v>
+        <v>11.13263211960395</v>
       </c>
       <c r="C204">
-        <v>11.11881231346678</v>
+        <v>11.12635375258383</v>
       </c>
       <c r="D204">
-        <v>11.11386427256182</v>
+        <v>11.12961814158949</v>
       </c>
       <c r="E204">
-        <v>11.12549134624599</v>
+        <v>11.11883665987972</v>
       </c>
       <c r="F204">
-        <v>11.12955961613969</v>
+        <v>11.12612275714918</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>11.13941439504966</v>
+        <v>11.14040976734732</v>
       </c>
       <c r="C205">
-        <v>11.12684797982783</v>
+        <v>11.13360064347904</v>
       </c>
       <c r="D205">
-        <v>11.1211480195288</v>
+        <v>11.13687788490366</v>
       </c>
       <c r="E205">
-        <v>11.13264113012076</v>
+        <v>11.12686797839137</v>
       </c>
       <c r="F205">
-        <v>11.13673027859213</v>
+        <v>11.13340268864507</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>11.14644947407986</v>
+        <v>11.14808875646585</v>
       </c>
       <c r="C206">
-        <v>11.13478713865273</v>
+        <v>11.1407345464074</v>
       </c>
       <c r="D206">
-        <v>11.12831923933126</v>
+        <v>11.14402899689588</v>
       </c>
       <c r="E206">
-        <v>11.13967740865709</v>
+        <v>11.13480272629617</v>
       </c>
       <c r="F206">
-        <v>11.14378227694275</v>
+        <v>11.1405676770136</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>11.15336536640899</v>
+        <v>11.15566923342854</v>
       </c>
       <c r="C207">
-        <v>11.14262985574912</v>
+        <v>11.14775558999224</v>
       </c>
       <c r="D207">
-        <v>11.13537804571054</v>
+        <v>11.15107171635813</v>
       </c>
       <c r="E207">
-        <v>11.14660032942112</v>
+        <v>11.14264096937073</v>
       </c>
       <c r="F207">
-        <v>11.15071568668157</v>
+        <v>11.14761779736476</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>11.16016216354523</v>
+        <v>11.16315134506883</v>
       </c>
       <c r="C208">
-        <v>11.1503761968802</v>
+        <v>11.15466390430733</v>
       </c>
       <c r="D208">
-        <v>11.14232455435785</v>
+        <v>11.15800628370257</v>
       </c>
       <c r="E208">
-        <v>11.15341004099371</v>
+        <v>11.15038277334748</v>
       </c>
       <c r="F208">
-        <v>11.15753058535461</v>
+        <v>11.15455312638127</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>11.16683995892946</v>
+        <v>11.17053523859033</v>
       </c>
       <c r="C209">
-        <v>11.15802622776469</v>
+        <v>11.16145962083099</v>
       </c>
       <c r="D209">
-        <v>11.1491588828937</v>
+        <v>11.16483294028898</v>
       </c>
       <c r="E209">
-        <v>11.16010669294361</v>
+        <v>11.15802820391473</v>
       </c>
       <c r="F209">
-        <v>11.16422705252456</v>
+        <v>11.16137374223813</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>11.17339884788874</v>
+        <v>11.17782106160189</v>
       </c>
       <c r="C210">
-        <v>11.16558001407697</v>
+        <v>11.16814287400564</v>
       </c>
       <c r="D210">
-        <v>11.15588115084796</v>
+        <v>11.17155192885928</v>
       </c>
       <c r="E210">
-        <v>11.16669043580147</v>
+        <v>11.1655773267167</v>
       </c>
       <c r="F210">
-        <v>11.17080516973204</v>
+        <v>11.16807972471732</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>11.17983892759062</v>
+        <v>11.18500896204398</v>
       </c>
       <c r="C211">
-        <v>11.17303762144704</v>
+        <v>11.17471379815762</v>
       </c>
       <c r="D211">
-        <v>11.1624914796406</v>
+        <v>11.17816349348422</v>
       </c>
       <c r="E211">
-        <v>11.17316142103459</v>
+        <v>11.17303020735354</v>
       </c>
       <c r="F211">
-        <v>11.17726502045763</v>
+        <v>11.17467115487262</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>11.18616029699842</v>
+        <v>11.19209908821486</v>
       </c>
       <c r="C212">
-        <v>11.18039911546061</v>
+        <v>11.1811725288393</v>
       </c>
       <c r="D212">
-        <v>11.1689899925631</v>
+        <v>11.18466787963988</v>
       </c>
       <c r="E212">
-        <v>11.1795198010225</v>
+        <v>11.18038691138143</v>
       </c>
       <c r="F212">
-        <v>11.18360669008421</v>
+        <v>11.18114811522813</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>11.19236305682739</v>
+        <v>11.19909158877729</v>
       </c>
       <c r="C213">
-        <v>11.18766456165917</v>
+        <v>11.18751920325339</v>
       </c>
       <c r="D213">
-        <v>11.17537681475998</v>
+        <v>11.19106533380888</v>
       </c>
       <c r="E213">
-        <v>11.18576572903317</v>
+        <v>11.18764750431256</v>
       </c>
       <c r="F213">
-        <v>11.18983026586033</v>
+        <v>11.18751068969358</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>11.19844730950181</v>
+        <v>11.20598661279123</v>
       </c>
       <c r="C214">
-        <v>11.19483402553995</v>
+        <v>11.19375395986679</v>
       </c>
       <c r="D214">
-        <v>11.18165207321091</v>
+        <v>11.19735610377745</v>
       </c>
       <c r="E214">
-        <v>11.19189935920008</v>
+        <v>11.1948120516152</v>
       </c>
       <c r="F214">
-        <v>11.19593583686384</v>
+        <v>11.19375896369178</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>11.20441315911286</v>
+        <v>11.21278430964666</v>
       </c>
       <c r="C215">
-        <v>11.20190757255606</v>
+        <v>11.19987693837079</v>
       </c>
       <c r="D215">
-        <v>11.18781589671508</v>
+        <v>11.20354043866896</v>
       </c>
       <c r="E215">
-        <v>11.19792084649986</v>
+        <v>11.20188061871372</v>
       </c>
       <c r="F215">
-        <v>11.2019234939662</v>
+        <v>11.19989302382475</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>11.21026071137748</v>
+        <v>11.21948482908735</v>
       </c>
       <c r="C216">
-        <v>11.20888526811648</v>
+        <v>11.20588828065849</v>
       </c>
       <c r="D216">
-        <v>11.19386841587277</v>
+        <v>11.20961858879348</v>
       </c>
       <c r="E216">
-        <v>11.2038303467307</v>
+        <v>11.20885327098873</v>
       </c>
       <c r="F216">
-        <v>11.20779332979739</v>
+        <v>11.20591295806793</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>11.21599007359798</v>
+        <v>11.2260883212182</v>
       </c>
       <c r="C217">
-        <v>11.21576717758613</v>
+        <v>11.2117881290713</v>
       </c>
       <c r="D217">
-        <v>11.19980976307188</v>
+        <v>11.21559080557442</v>
       </c>
       <c r="E217">
-        <v>11.2096280164914</v>
+        <v>11.21573007377698</v>
       </c>
       <c r="F217">
-        <v>11.21354543871123</v>
+        <v>11.21181885569007</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>11.22160135462252</v>
+        <v>11.23259493653688</v>
       </c>
       <c r="C218">
-        <v>11.22255336628589</v>
+        <v>11.21757662675237</v>
       </c>
       <c r="D218">
-        <v>11.20564007247208</v>
+        <v>11.22145734165722</v>
       </c>
       <c r="E218">
-        <v>11.2153140131611</v>
+        <v>11.22251109237145</v>
       </c>
       <c r="F218">
-        <v>11.21917991675152</v>
+        <v>11.21761080735728</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>11.22709466480643</v>
+        <v>11.23900482587108</v>
       </c>
       <c r="C219">
-        <v>11.22924389949267</v>
+        <v>11.22325391829471</v>
       </c>
       <c r="D219">
-        <v>11.21135947998932</v>
+        <v>11.22721845104705</v>
       </c>
       <c r="E219">
-        <v>11.22088849487964</v>
+        <v>11.22919639202143</v>
       </c>
       <c r="F219">
-        <v>11.22469686161864</v>
+        <v>11.22328890486829</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>11.23247011597429</v>
+        <v>11.24531814040055</v>
       </c>
       <c r="C220">
-        <v>11.23583884243946</v>
+        <v>11.22882014938013</v>
       </c>
       <c r="D220">
-        <v>11.21696812328321</v>
+        <v>11.23287438874685</v>
       </c>
       <c r="E220">
-        <v>11.22635162052855</v>
+        <v>11.23578603793252</v>
       </c>
       <c r="F220">
-        <v>11.23009637263656</v>
+        <v>11.22885324127814</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>11.23772782138288</v>
+        <v>11.25153503166545</v>
       </c>
       <c r="C221">
-        <v>11.24233826031534</v>
+        <v>11.23427546674369</v>
       </c>
       <c r="D221">
-        <v>11.22246614174326</v>
+        <v>11.23842541097016</v>
       </c>
       <c r="E221">
-        <v>11.23170354971265</v>
+        <v>11.24228009526677</v>
       </c>
       <c r="F221">
-        <v>11.23537855072058</v>
+        <v>11.2343039108552</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>11.24286789568484</v>
+        <v>11.25765565159769</v>
       </c>
       <c r="C222">
-        <v>11.24874221826558</v>
+        <v>11.2396200190111</v>
       </c>
       <c r="D222">
-        <v>11.22785367647507</v>
+        <v>11.24387177512449</v>
       </c>
       <c r="E222">
-        <v>11.23694444274227</v>
+        <v>11.24867862914258</v>
       </c>
       <c r="F222">
-        <v>11.24054349834542</v>
+        <v>11.23964100915797</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>11.24789045489315</v>
+        <v>11.26368015246089</v>
       </c>
       <c r="C223">
-        <v>11.25505078139162</v>
+        <v>11.24485395541733</v>
       </c>
       <c r="D223">
-        <v>11.23313087028987</v>
+        <v>11.24921373990238</v>
       </c>
       <c r="E223">
-        <v>11.24207446061601</v>
+        <v>11.2549817046348</v>
       </c>
       <c r="F223">
-        <v>11.24559131951402</v>
+        <v>11.24486463283034</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>11.25279561634631</v>
+        <v>11.26960868687144</v>
       </c>
       <c r="C224">
-        <v>11.26126401475119</v>
+        <v>11.24997742558687</v>
       </c>
       <c r="D224">
-        <v>11.23829786769235</v>
+        <v>11.25445156498737</v>
       </c>
       <c r="E224">
-        <v>11.24709376500416</v>
+        <v>11.26118938677478</v>
       </c>
       <c r="F224">
-        <v>11.25052211972677</v>
+        <v>11.24997487966595</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>11.25758349867432</v>
+        <v>11.27544140780799</v>
       </c>
       <c r="C225">
-        <v>11.26738198335828</v>
+        <v>11.25499058050681</v>
       </c>
       <c r="D225">
-        <v>11.24335481486892</v>
+        <v>11.25958551126668</v>
       </c>
       <c r="E225">
-        <v>11.25200251823264</v>
+        <v>11.26730174055042</v>
       </c>
       <c r="F225">
-        <v>11.25533600595127</v>
+        <v>11.25497184859579</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>11.26225422176538</v>
+        <v>11.28117846864257</v>
       </c>
       <c r="C226">
-        <v>11.27340475218327</v>
+        <v>11.25989357210251</v>
       </c>
       <c r="D226">
-        <v>11.24830185967907</v>
+        <v>11.2646158408538</v>
       </c>
       <c r="E226">
-        <v>11.25680088326746</v>
+        <v>11.27331883090624</v>
       </c>
       <c r="F226">
-        <v>11.26003308659261</v>
+        <v>11.25985563974175</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>11.26680790673326</v>
+        <v>11.28682002308293</v>
       </c>
       <c r="C227">
-        <v>11.27933238615289</v>
+        <v>11.26468655320632</v>
       </c>
       <c r="D227">
-        <v>11.25313915164461</v>
+        <v>11.2695428170357</v>
       </c>
       <c r="E227">
-        <v>11.26148902369983</v>
+        <v>11.27924072274337</v>
       </c>
       <c r="F227">
-        <v>11.26461347146404</v>
+        <v>11.26462635426332</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>11.27124467588544</v>
+        <v>11.29236622519274</v>
       </c>
       <c r="C228">
-        <v>11.28516495015032</v>
+        <v>11.26936967833552</v>
       </c>
       <c r="D228">
-        <v>11.25786684194044</v>
+        <v>11.2743667041526</v>
       </c>
       <c r="E228">
-        <v>11.26606710373166</v>
+        <v>11.28506748091957</v>
       </c>
       <c r="F228">
-        <v>11.26907727175826</v>
+        <v>11.2692840943728</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>11.27556465269186</v>
+        <v>11.29781722940223</v>
       </c>
       <c r="C229">
-        <v>11.29090250901525</v>
+        <v>11.27394310277455</v>
       </c>
       <c r="D229">
-        <v>11.26248508338722</v>
+        <v>11.27908776772652</v>
       </c>
       <c r="E229">
-        <v>11.27053528816175</v>
+        <v>11.29079917024934</v>
       </c>
       <c r="F229">
-        <v>11.27342460001926</v>
+        <v>11.27382896334772</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>11.27976796175447</v>
+        <v>11.30317319053905</v>
       </c>
       <c r="C230">
-        <v>11.29654512754386</v>
+        <v>11.27840698175023</v>
       </c>
       <c r="D230">
-        <v>11.2669940304425</v>
+        <v>11.28370627455838</v>
       </c>
       <c r="E230">
-        <v>11.27489374237234</v>
+        <v>11.29643585550392</v>
       </c>
       <c r="F230">
-        <v>11.27765557011446</v>
+        <v>11.27826106556502</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>11.2838547287773</v>
+        <v>11.308434263773</v>
       </c>
       <c r="C231">
-        <v>11.30209287048895</v>
+        <v>11.2827614718345</v>
       </c>
       <c r="D231">
-        <v>11.27139383919382</v>
+        <v>11.28822249249782</v>
       </c>
       <c r="E231">
-        <v>11.27914263231631</v>
+        <v>11.30197760141143</v>
       </c>
       <c r="F231">
-        <v>11.28177029720741</v>
+        <v>11.28258050639087</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>11.28782508053728</v>
+        <v>11.31360060463539</v>
       </c>
       <c r="C232">
-        <v>11.30754580255991</v>
+        <v>11.28700673041789</v>
       </c>
       <c r="D232">
-        <v>11.27568466735303</v>
+        <v>11.29263669054791</v>
       </c>
       <c r="E232">
-        <v>11.28328212450476</v>
+        <v>11.30742447265678</v>
       </c>
       <c r="F232">
-        <v>11.28576889773098</v>
+        <v>11.28678739215604</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>11.29167914485572</v>
+        <v>11.31867236903078</v>
       </c>
       <c r="C233">
-        <v>11.31290398842282</v>
+        <v>11.29114291568278</v>
       </c>
       <c r="D233">
-        <v>11.27986667424907</v>
+        <v>11.29694913888975</v>
       </c>
       <c r="E233">
-        <v>11.28731238599518</v>
+        <v>11.31277653388173</v>
       </c>
       <c r="F233">
-        <v>11.28965148936089</v>
+        <v>11.29088183018817</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>11.29541705057031</v>
+        <v>11.32364971326804</v>
       </c>
       <c r="C234">
-        <v>11.31816749270049</v>
+        <v>11.2951701869734</v>
       </c>
       <c r="D234">
-        <v>11.28394002082366</v>
+        <v>11.30116010898135</v>
       </c>
       <c r="E234">
-        <v>11.29123358438004</v>
+        <v>11.31803384968501</v>
       </c>
       <c r="F234">
-        <v>11.29341819098994</v>
+        <v>11.29486392882997</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>11.29903892750784</v>
+        <v>11.32853279400674</v>
       </c>
       <c r="C235">
-        <v>11.32333637997248</v>
+        <v>11.29908870466948</v>
       </c>
       <c r="D235">
-        <v>11.28790486962703</v>
+        <v>11.3052698733028</v>
       </c>
       <c r="E235">
-        <v>11.2950458877759</v>
+        <v>11.32319648462231</v>
       </c>
       <c r="F235">
-        <v>11.29706912270243</v>
+        <v>11.29873379736496</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>11.30254490645749</v>
+        <v>11.33332176827597</v>
       </c>
       <c r="C236">
-        <v>11.32841071477518</v>
+        <v>11.30289862925283</v>
       </c>
       <c r="D236">
-        <v>11.29176138481275</v>
+        <v>11.30927870554387</v>
       </c>
       <c r="E236">
-        <v>11.29874946481299</v>
+        <v>11.32826450320643</v>
       </c>
       <c r="F236">
-        <v>11.30060440574918</v>
+        <v>11.3024915459608</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>11.30593511914469</v>
+        <v>11.33801679348726</v>
       </c>
       <c r="C237">
-        <v>11.33339056160184</v>
+        <v>11.30660012228416</v>
       </c>
       <c r="D237">
-        <v>11.29550973213576</v>
+        <v>11.31318688060803</v>
       </c>
       <c r="E237">
-        <v>11.30234448462523</v>
+        <v>11.33323796990717</v>
       </c>
       <c r="F237">
-        <v>11.30402416252292</v>
+        <v>11.30613728571726</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>11.30920969820561</v>
+        <v>11.34261802746656</v>
       </c>
       <c r="C238">
-        <v>11.33827598490262</v>
+        <v>11.31019334608509</v>
       </c>
       <c r="D238">
-        <v>11.29915007894982</v>
+        <v>11.31699467462004</v>
       </c>
       <c r="E238">
-        <v>11.30583111684074</v>
+        <v>11.33811694915143</v>
       </c>
       <c r="F238">
-        <v>11.30732851653401</v>
+        <v>11.30967112867133</v>
       </c>
     </row>
   </sheetData>
